--- a/src/attributions/attributions_ig_traj_444.xlsx
+++ b/src/attributions/attributions_ig_traj_444.xlsx
@@ -1007,178 +1007,178 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>-0</v>
+        <v>0.1119557869065137</v>
       </c>
       <c r="C2" t="n">
-        <v>0.09763930568853529</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>-0.01532840067179258</v>
+        <v>-0.006269620104170185</v>
       </c>
       <c r="F2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>-0.03443636609342655</v>
+        <v>-0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>-0.02435258306680509</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>0.1564069789428789</v>
       </c>
       <c r="L2" t="n">
-        <v>0.1886092322127174</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>0.00796185350181966</v>
+        <v>-0.009353178166846856</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>-0.1243732814297484</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>-0.09237955110702602</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>0.09173261371066502</v>
       </c>
       <c r="U2" t="n">
-        <v>-0.01730074633828145</v>
+        <v>-0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="W2" t="n">
-        <v>-0.02906902376099895</v>
+        <v>0.05591904119654142</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
       </c>
       <c r="Z2" t="n">
-        <v>-0.05054410932880064</v>
+        <v>-0</v>
       </c>
       <c r="AA2" t="n">
-        <v>0</v>
+        <v>0.001579407849506565</v>
       </c>
       <c r="AB2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AC2" t="n">
-        <v>-0</v>
+        <v>0.03172387293051325</v>
       </c>
       <c r="AD2" t="n">
-        <v>0.004962277031825741</v>
+        <v>-0</v>
       </c>
       <c r="AE2" t="n">
         <v>-0</v>
       </c>
       <c r="AF2" t="n">
-        <v>0.01725965519729348</v>
+        <v>-0.03206557820914779</v>
       </c>
       <c r="AG2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AH2" t="n">
         <v>-0</v>
       </c>
       <c r="AI2" t="n">
-        <v>-0.004978522185060088</v>
+        <v>0</v>
       </c>
       <c r="AJ2" t="n">
-        <v>-0</v>
+        <v>0.002287583687579504</v>
       </c>
       <c r="AK2" t="n">
         <v>0</v>
       </c>
       <c r="AL2" t="n">
-        <v>-0</v>
+        <v>0.05745207443040867</v>
       </c>
       <c r="AM2" t="n">
-        <v>0.05231551110074738</v>
+        <v>0</v>
       </c>
       <c r="AN2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AO2" t="n">
-        <v>0.07245024531928966</v>
+        <v>0.005924793711966913</v>
       </c>
       <c r="AP2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AQ2" t="n">
         <v>0</v>
       </c>
       <c r="AR2" t="n">
-        <v>0.01987203868196488</v>
+        <v>0</v>
       </c>
       <c r="AS2" t="n">
-        <v>0</v>
+        <v>-0.03222569949416512</v>
       </c>
       <c r="AT2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AU2" t="n">
-        <v>-0</v>
+        <v>0.342257218442478</v>
       </c>
       <c r="AV2" t="n">
-        <v>0.20214766677823</v>
+        <v>-0</v>
       </c>
       <c r="AW2" t="n">
         <v>-0</v>
       </c>
       <c r="AX2" t="n">
-        <v>-0.0001042934217406813</v>
+        <v>0.1946694666514021</v>
       </c>
       <c r="AY2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AZ2" t="n">
         <v>0</v>
       </c>
       <c r="BA2" t="n">
-        <v>-0.2314503726883599</v>
+        <v>-0</v>
       </c>
       <c r="BB2" t="n">
-        <v>0</v>
+        <v>-0.05871188157103844</v>
       </c>
       <c r="BC2" t="n">
         <v>0</v>
       </c>
       <c r="BD2" t="n">
-        <v>0</v>
+        <v>-0.009692833802689451</v>
       </c>
       <c r="BE2" t="n">
-        <v>0.05602539198422825</v>
+        <v>0</v>
       </c>
       <c r="BF2" t="n">
         <v>0</v>
       </c>
       <c r="BG2" t="n">
-        <v>-0.05504138662819894</v>
+        <v>-0.05899650778167679</v>
       </c>
       <c r="BH2" t="n">
         <v>0</v>
@@ -1187,106 +1187,106 @@
         <v>0</v>
       </c>
       <c r="BJ2" t="n">
-        <v>-0.01644087503187727</v>
+        <v>0</v>
       </c>
       <c r="BK2" t="n">
-        <v>0</v>
+        <v>-0.07140179558843039</v>
       </c>
       <c r="BL2" t="n">
         <v>-0</v>
       </c>
       <c r="BM2" t="n">
-        <v>0</v>
+        <v>-0.04121006165406185</v>
       </c>
       <c r="BN2" t="n">
-        <v>-0.06917219569573986</v>
+        <v>-0</v>
       </c>
       <c r="BO2" t="n">
         <v>-0</v>
       </c>
       <c r="BP2" t="n">
-        <v>-0.07851239778727084</v>
+        <v>0.1686239715384837</v>
       </c>
       <c r="BQ2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BR2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BS2" t="n">
-        <v>0.09653806800718068</v>
+        <v>0</v>
       </c>
       <c r="BT2" t="n">
-        <v>-0</v>
+        <v>0.04287443334894736</v>
       </c>
       <c r="BU2" t="n">
         <v>0</v>
       </c>
       <c r="BV2" t="n">
-        <v>0</v>
+        <v>0.1820566462414447</v>
       </c>
       <c r="BW2" t="n">
-        <v>0.1130538450678167</v>
+        <v>0</v>
       </c>
       <c r="BX2" t="n">
         <v>-0</v>
       </c>
       <c r="BY2" t="n">
-        <v>-0.01609025492060685</v>
+        <v>0.008136172867675465</v>
       </c>
       <c r="BZ2" t="n">
         <v>0</v>
       </c>
       <c r="CA2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CB2" t="n">
-        <v>-0.08159552172220831</v>
+        <v>-0</v>
       </c>
       <c r="CC2" t="n">
-        <v>0</v>
+        <v>0.03544625352344381</v>
       </c>
       <c r="CD2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CE2" t="n">
-        <v>0</v>
+        <v>-0.07712118033990228</v>
       </c>
       <c r="CF2" t="n">
-        <v>-0.07404988406123073</v>
+        <v>0</v>
       </c>
       <c r="CG2" t="n">
         <v>0</v>
       </c>
       <c r="CH2" t="n">
-        <v>0.0001587278547488839</v>
+        <v>-0.004081092570111233</v>
       </c>
       <c r="CI2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CJ2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CK2" t="n">
-        <v>0.04126345540010569</v>
+        <v>0</v>
       </c>
       <c r="CL2" t="n">
-        <v>-0</v>
+        <v>0.05046530107517962</v>
       </c>
       <c r="CM2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CN2" t="n">
-        <v>-0</v>
+        <v>0.006579934298579931</v>
       </c>
       <c r="CO2" t="n">
-        <v>-0.000996420830158957</v>
+        <v>-0</v>
       </c>
       <c r="CP2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CQ2" t="n">
-        <v>0.02159828613267212</v>
+        <v>-0.02900688073700627</v>
       </c>
       <c r="CR2" t="n">
         <v>0</v>
@@ -1295,79 +1295,79 @@
         <v>-0</v>
       </c>
       <c r="CT2" t="n">
-        <v>0.01145843563581917</v>
+        <v>-0</v>
       </c>
       <c r="CU2" t="n">
-        <v>0</v>
+        <v>0.000941203045526322</v>
       </c>
       <c r="CV2" t="n">
         <v>-0</v>
       </c>
       <c r="CW2" t="n">
-        <v>-0</v>
+        <v>-0.08276630305223066</v>
       </c>
       <c r="CX2" t="n">
-        <v>-0.0754030342927034</v>
+        <v>0</v>
       </c>
       <c r="CY2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CZ2" t="n">
-        <v>0.02470329219559339</v>
+        <v>-0.009091362285733717</v>
       </c>
       <c r="DA2" t="n">
         <v>0</v>
       </c>
       <c r="DB2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DC2" t="n">
-        <v>0.03976775850526978</v>
+        <v>-0</v>
       </c>
       <c r="DD2" t="n">
-        <v>0</v>
+        <v>0.03099472632202777</v>
       </c>
       <c r="DE2" t="n">
         <v>0</v>
       </c>
       <c r="DF2" t="n">
-        <v>0</v>
+        <v>-0.08021901117326097</v>
       </c>
       <c r="DG2" t="n">
-        <v>-0.02808887157410905</v>
+        <v>0</v>
       </c>
       <c r="DH2" t="n">
         <v>0</v>
       </c>
       <c r="DI2" t="n">
-        <v>-0.05786402152625077</v>
+        <v>0.0478335670285695</v>
       </c>
       <c r="DJ2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DK2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DL2" t="n">
-        <v>0.07876157097249704</v>
+        <v>0</v>
       </c>
       <c r="DM2" t="n">
-        <v>0</v>
+        <v>0.005926915582458726</v>
       </c>
       <c r="DN2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DO2" t="n">
-        <v>0</v>
+        <v>0.01299907193770447</v>
       </c>
       <c r="DP2" t="n">
-        <v>-0.01325270121420294</v>
+        <v>0</v>
       </c>
       <c r="DQ2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DR2" t="n">
-        <v>-0.01697064135783831</v>
+        <v>-0.04085434235240467</v>
       </c>
       <c r="DS2" t="n">
         <v>0</v>
@@ -1376,133 +1376,133 @@
         <v>0</v>
       </c>
       <c r="DU2" t="n">
-        <v>0.0188273548769933</v>
+        <v>0</v>
       </c>
       <c r="DV2" t="n">
-        <v>0</v>
+        <v>-0.0100251851565695</v>
       </c>
       <c r="DW2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DX2" t="n">
-        <v>0</v>
+        <v>-0.1382140107905027</v>
       </c>
       <c r="DY2" t="n">
-        <v>-0.002595932426552943</v>
+        <v>-0</v>
       </c>
       <c r="DZ2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EA2" t="n">
-        <v>0.05824234166334983</v>
+        <v>-0.03088703453364123</v>
       </c>
       <c r="EB2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EC2" t="n">
         <v>-0</v>
       </c>
       <c r="ED2" t="n">
-        <v>0.06986001856925331</v>
+        <v>-0</v>
       </c>
       <c r="EE2" t="n">
-        <v>-0</v>
+        <v>-0.03993698109187577</v>
       </c>
       <c r="EF2" t="n">
         <v>-0</v>
       </c>
       <c r="EG2" t="n">
-        <v>0</v>
+        <v>-0.05649120904799688</v>
       </c>
       <c r="EH2" t="n">
-        <v>-0.05640275552511558</v>
+        <v>-0</v>
       </c>
       <c r="EI2" t="n">
         <v>0</v>
       </c>
       <c r="EJ2" t="n">
-        <v>-0.04915689843024679</v>
+        <v>0.01324109954035662</v>
       </c>
       <c r="EK2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EL2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EM2" t="n">
-        <v>0.07212593733713245</v>
+        <v>0</v>
       </c>
       <c r="EN2" t="n">
-        <v>0</v>
+        <v>0.08730631932813814</v>
       </c>
       <c r="EO2" t="n">
         <v>0</v>
       </c>
       <c r="EP2" t="n">
-        <v>-0</v>
+        <v>-0.06231207059746063</v>
       </c>
       <c r="EQ2" t="n">
-        <v>0.01787421978312317</v>
+        <v>0</v>
       </c>
       <c r="ER2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="ES2" t="n">
-        <v>0.04038534894358588</v>
+        <v>-0.01558004065351027</v>
       </c>
       <c r="ET2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EU2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EV2" t="n">
-        <v>-0.01880551667868273</v>
+        <v>0</v>
       </c>
       <c r="EW2" t="n">
-        <v>-0</v>
+        <v>0.06711783706092306</v>
       </c>
       <c r="EX2" t="n">
         <v>0</v>
       </c>
       <c r="EY2" t="n">
-        <v>0</v>
+        <v>-0.08734004212493762</v>
       </c>
       <c r="EZ2" t="n">
-        <v>-0.07953826184808273</v>
+        <v>-0</v>
       </c>
       <c r="FA2" t="n">
         <v>0</v>
       </c>
       <c r="FB2" t="n">
-        <v>0.00571301643225831</v>
+        <v>-0.002860953820012634</v>
       </c>
       <c r="FC2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FD2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FE2" t="n">
-        <v>0.04462728191183715</v>
+        <v>0</v>
       </c>
       <c r="FF2" t="n">
-        <v>-0</v>
+        <v>0.03220591333436644</v>
       </c>
       <c r="FG2" t="n">
         <v>0</v>
       </c>
       <c r="FH2" t="n">
-        <v>-0</v>
+        <v>0.001178399468943418</v>
       </c>
       <c r="FI2" t="n">
-        <v>0.1047533666022601</v>
+        <v>-0</v>
       </c>
       <c r="FJ2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FK2" t="n">
-        <v>0.01108427641694633</v>
+        <v>-0.06256833486035958</v>
       </c>
       <c r="FL2" t="n">
         <v>-0</v>
@@ -1511,25 +1511,25 @@
         <v>0</v>
       </c>
       <c r="FN2" t="n">
-        <v>-0.01385048119888906</v>
+        <v>-0</v>
       </c>
       <c r="FO2" t="n">
-        <v>-0</v>
+        <v>-0.01364318111454316</v>
       </c>
       <c r="FP2" t="n">
         <v>0</v>
       </c>
       <c r="FQ2" t="n">
-        <v>-0</v>
+        <v>-0.01063175862691304</v>
       </c>
       <c r="FR2" t="n">
-        <v>-0.02015541715534304</v>
+        <v>0</v>
       </c>
       <c r="FS2" t="n">
         <v>-0</v>
       </c>
       <c r="FT2" t="n">
-        <v>-0.001538415344458938</v>
+        <v>0.001854211006475435</v>
       </c>
       <c r="FU2" t="n">
         <v>-0</v>
@@ -1538,37 +1538,37 @@
         <v>-0</v>
       </c>
       <c r="FW2" t="n">
-        <v>0.01156015771756765</v>
+        <v>-0</v>
       </c>
       <c r="FX2" t="n">
-        <v>-0</v>
+        <v>-0.02383070272340733</v>
       </c>
       <c r="FY2" t="n">
         <v>-0</v>
       </c>
       <c r="FZ2" t="n">
-        <v>-0</v>
+        <v>-0.05229351848679406</v>
       </c>
       <c r="GA2" t="n">
-        <v>0.02547332637161084</v>
+        <v>0</v>
       </c>
       <c r="GB2" t="n">
         <v>-0</v>
       </c>
       <c r="GC2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="GD2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="GE2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="GF2" t="n">
-        <v>0.09502093349854537</v>
+        <v>-0</v>
       </c>
       <c r="GG2" t="n">
-        <v>0</v>
+        <v>-0.07772608736088633</v>
       </c>
     </row>
     <row r="3">
@@ -1576,10 +1576,10 @@
         <v>0</v>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -1603,10 +1603,10 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="L3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -1630,10 +1630,10 @@
         <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="U3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -1657,10 +1657,10 @@
         <v>0</v>
       </c>
       <c r="AC3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AD3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AE3" t="n">
         <v>0</v>
@@ -1684,10 +1684,10 @@
         <v>0</v>
       </c>
       <c r="AL3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AM3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AN3" t="n">
         <v>0</v>
@@ -1711,10 +1711,10 @@
         <v>0</v>
       </c>
       <c r="AU3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AV3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AW3" t="n">
         <v>0</v>
@@ -1738,10 +1738,10 @@
         <v>0</v>
       </c>
       <c r="BD3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BE3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BF3" t="n">
         <v>0</v>
@@ -1765,10 +1765,10 @@
         <v>0</v>
       </c>
       <c r="BM3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BN3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BO3" t="n">
         <v>0</v>
@@ -1792,10 +1792,10 @@
         <v>0</v>
       </c>
       <c r="BV3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BW3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BX3" t="n">
         <v>0</v>
@@ -1819,10 +1819,10 @@
         <v>0</v>
       </c>
       <c r="CE3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CF3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CG3" t="n">
         <v>0</v>
@@ -1846,10 +1846,10 @@
         <v>0</v>
       </c>
       <c r="CN3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CO3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CP3" t="n">
         <v>0</v>
@@ -1900,10 +1900,10 @@
         <v>0</v>
       </c>
       <c r="DF3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DG3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DH3" t="n">
         <v>0</v>
@@ -1927,10 +1927,10 @@
         <v>0</v>
       </c>
       <c r="DO3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DP3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DQ3" t="n">
         <v>0</v>
@@ -1954,10 +1954,10 @@
         <v>0</v>
       </c>
       <c r="DX3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DY3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DZ3" t="n">
         <v>0</v>
@@ -1981,10 +1981,10 @@
         <v>0</v>
       </c>
       <c r="EG3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EH3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EI3" t="n">
         <v>0</v>
@@ -2008,10 +2008,10 @@
         <v>0</v>
       </c>
       <c r="EP3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EQ3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="ER3" t="n">
         <v>0</v>
@@ -2035,10 +2035,10 @@
         <v>0</v>
       </c>
       <c r="EY3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EZ3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FA3" t="n">
         <v>0</v>
@@ -2089,10 +2089,10 @@
         <v>0</v>
       </c>
       <c r="FQ3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FR3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FS3" t="n">
         <v>0</v>
@@ -2145,10 +2145,10 @@
         <v>0</v>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -2172,10 +2172,10 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="L4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
         <v>0</v>
@@ -2199,10 +2199,10 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="U4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -2226,10 +2226,10 @@
         <v>0</v>
       </c>
       <c r="AC4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AD4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AE4" t="n">
         <v>0</v>
@@ -2253,10 +2253,10 @@
         <v>0</v>
       </c>
       <c r="AL4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AM4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AN4" t="n">
         <v>0</v>
@@ -2280,10 +2280,10 @@
         <v>0</v>
       </c>
       <c r="AU4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AV4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AW4" t="n">
         <v>0</v>
@@ -2307,10 +2307,10 @@
         <v>0</v>
       </c>
       <c r="BD4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BE4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BF4" t="n">
         <v>0</v>
@@ -2334,10 +2334,10 @@
         <v>0</v>
       </c>
       <c r="BM4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BN4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BO4" t="n">
         <v>0</v>
@@ -2361,10 +2361,10 @@
         <v>0</v>
       </c>
       <c r="BV4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BW4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BX4" t="n">
         <v>0</v>
@@ -2388,10 +2388,10 @@
         <v>0</v>
       </c>
       <c r="CE4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CF4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CG4" t="n">
         <v>0</v>
@@ -2415,10 +2415,10 @@
         <v>0</v>
       </c>
       <c r="CN4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CO4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CP4" t="n">
         <v>0</v>
@@ -2469,10 +2469,10 @@
         <v>0</v>
       </c>
       <c r="DF4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DG4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DH4" t="n">
         <v>0</v>
@@ -2496,10 +2496,10 @@
         <v>0</v>
       </c>
       <c r="DO4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DP4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DQ4" t="n">
         <v>0</v>
@@ -2523,10 +2523,10 @@
         <v>0</v>
       </c>
       <c r="DX4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DY4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DZ4" t="n">
         <v>0</v>
@@ -2550,10 +2550,10 @@
         <v>0</v>
       </c>
       <c r="EG4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EH4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EI4" t="n">
         <v>0</v>
@@ -2577,10 +2577,10 @@
         <v>0</v>
       </c>
       <c r="EP4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EQ4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="ER4" t="n">
         <v>0</v>
@@ -2604,10 +2604,10 @@
         <v>0</v>
       </c>
       <c r="EY4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EZ4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FA4" t="n">
         <v>0</v>
@@ -2658,10 +2658,10 @@
         <v>0</v>
       </c>
       <c r="FQ4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FR4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FS4" t="n">
         <v>0</v>
@@ -2714,22 +2714,22 @@
         <v>0</v>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>0.2031242477094362</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1428075316958317</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>-0.01082448398038815</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>-0.03581807729538133</v>
+        <v>0.0263694166195829</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>-0</v>
+        <v>-0.07070870917589635</v>
       </c>
       <c r="H5" t="n">
         <v>-0</v>
@@ -2741,22 +2741,22 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>0.2198782285486201</v>
       </c>
       <c r="L5" t="n">
-        <v>0.2422362292455513</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>-0.04944058097251879</v>
+        <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>0.02107058717573346</v>
+        <v>0.04468542091333901</v>
       </c>
       <c r="O5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>-0.1201376426239863</v>
       </c>
       <c r="Q5" t="n">
         <v>-0</v>
@@ -2765,52 +2765,52 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="T5" t="n">
-        <v>-0</v>
+        <v>0.09319977076111503</v>
       </c>
       <c r="U5" t="n">
-        <v>0.05679274846983277</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0.03062257511183847</v>
+        <v>-0</v>
       </c>
       <c r="W5" t="n">
-        <v>0.07530432864006242</v>
+        <v>0.08575384898239925</v>
       </c>
       <c r="X5" t="n">
         <v>-0</v>
       </c>
       <c r="Y5" t="n">
-        <v>-0</v>
+        <v>-0.02887256588496505</v>
       </c>
       <c r="Z5" t="n">
         <v>0</v>
       </c>
       <c r="AA5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AB5" t="n">
         <v>-0</v>
       </c>
       <c r="AC5" t="n">
-        <v>0</v>
+        <v>0.06391925116257058</v>
       </c>
       <c r="AD5" t="n">
-        <v>-0.01458601435428514</v>
+        <v>-0</v>
       </c>
       <c r="AE5" t="n">
-        <v>0.01017574988340464</v>
+        <v>0</v>
       </c>
       <c r="AF5" t="n">
-        <v>-0.05003507758328454</v>
+        <v>-0.008147709946504631</v>
       </c>
       <c r="AG5" t="n">
         <v>-0</v>
       </c>
       <c r="AH5" t="n">
-        <v>-0</v>
+        <v>-0.01011553963933936</v>
       </c>
       <c r="AI5" t="n">
         <v>-0</v>
@@ -2819,133 +2819,133 @@
         <v>-0</v>
       </c>
       <c r="AK5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AL5" t="n">
-        <v>0</v>
+        <v>0.04620032771711633</v>
       </c>
       <c r="AM5" t="n">
-        <v>0.04596355723906149</v>
+        <v>0</v>
       </c>
       <c r="AN5" t="n">
-        <v>0.01271685863736183</v>
+        <v>0</v>
       </c>
       <c r="AO5" t="n">
-        <v>-0.03912793424013495</v>
+        <v>0.04036146592873315</v>
       </c>
       <c r="AP5" t="n">
         <v>0</v>
       </c>
       <c r="AQ5" t="n">
-        <v>0</v>
+        <v>-0.0591061215964155</v>
       </c>
       <c r="AR5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AS5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AT5" t="n">
         <v>-0</v>
       </c>
       <c r="AU5" t="n">
-        <v>0</v>
+        <v>0.3696114569106919</v>
       </c>
       <c r="AV5" t="n">
-        <v>0.1566928023986608</v>
+        <v>-0</v>
       </c>
       <c r="AW5" t="n">
-        <v>0.04586349693119052</v>
+        <v>-0</v>
       </c>
       <c r="AX5" t="n">
-        <v>0.02850830116452892</v>
+        <v>0.2043333725706908</v>
       </c>
       <c r="AY5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AZ5" t="n">
-        <v>0</v>
+        <v>-0.1835221163657897</v>
       </c>
       <c r="BA5" t="n">
         <v>-0</v>
       </c>
       <c r="BB5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BC5" t="n">
         <v>0</v>
       </c>
       <c r="BD5" t="n">
-        <v>-0</v>
+        <v>0.04028490824433388</v>
       </c>
       <c r="BE5" t="n">
-        <v>0.04744922755907666</v>
+        <v>0</v>
       </c>
       <c r="BF5" t="n">
-        <v>-0.008221489740130749</v>
+        <v>0</v>
       </c>
       <c r="BG5" t="n">
-        <v>-0.0644364574808043</v>
+        <v>-0.08655272829080513</v>
       </c>
       <c r="BH5" t="n">
         <v>0</v>
       </c>
       <c r="BI5" t="n">
-        <v>0</v>
+        <v>-0.003742794285311714</v>
       </c>
       <c r="BJ5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BK5" t="n">
         <v>0</v>
       </c>
       <c r="BL5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BM5" t="n">
-        <v>-0</v>
+        <v>-0.04287663752206976</v>
       </c>
       <c r="BN5" t="n">
-        <v>-0.08839674521243374</v>
+        <v>-0</v>
       </c>
       <c r="BO5" t="n">
-        <v>-0.018411439779572</v>
+        <v>-0</v>
       </c>
       <c r="BP5" t="n">
-        <v>-0.09885290750873266</v>
+        <v>0.0494352149351222</v>
       </c>
       <c r="BQ5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BR5" t="n">
-        <v>-0</v>
+        <v>0.1036901924945408</v>
       </c>
       <c r="BS5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BT5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BU5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BV5" t="n">
-        <v>0</v>
+        <v>0.1676391801862338</v>
       </c>
       <c r="BW5" t="n">
-        <v>0.08856271209584923</v>
+        <v>0</v>
       </c>
       <c r="BX5" t="n">
-        <v>0.01092699436471995</v>
+        <v>-0</v>
       </c>
       <c r="BY5" t="n">
-        <v>-0.01718075132789212</v>
+        <v>0.07644888656666177</v>
       </c>
       <c r="BZ5" t="n">
         <v>0</v>
       </c>
       <c r="CA5" t="n">
-        <v>-0</v>
+        <v>-0.08336548051167846</v>
       </c>
       <c r="CB5" t="n">
         <v>-0</v>
@@ -2954,28 +2954,28 @@
         <v>-0</v>
       </c>
       <c r="CD5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CE5" t="n">
-        <v>-0</v>
+        <v>-0.09173356777050247</v>
       </c>
       <c r="CF5" t="n">
-        <v>-0.07101007537242433</v>
+        <v>0</v>
       </c>
       <c r="CG5" t="n">
-        <v>0.01084095345377761</v>
+        <v>-0</v>
       </c>
       <c r="CH5" t="n">
-        <v>0.00112965552700709</v>
+        <v>-0.02791078211976699</v>
       </c>
       <c r="CI5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CJ5" t="n">
-        <v>-0</v>
+        <v>0.0512390707325139</v>
       </c>
       <c r="CK5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CL5" t="n">
         <v>-0</v>
@@ -2984,22 +2984,22 @@
         <v>0</v>
       </c>
       <c r="CN5" t="n">
-        <v>-0</v>
+        <v>-0.006786898985079257</v>
       </c>
       <c r="CO5" t="n">
-        <v>0.02365976187241921</v>
+        <v>-0</v>
       </c>
       <c r="CP5" t="n">
-        <v>-0.01451095721622697</v>
+        <v>0</v>
       </c>
       <c r="CQ5" t="n">
-        <v>0.0146396096696645</v>
+        <v>-0.0218468294087919</v>
       </c>
       <c r="CR5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CS5" t="n">
-        <v>-0</v>
+        <v>-0.006264988338433519</v>
       </c>
       <c r="CT5" t="n">
         <v>0</v>
@@ -3008,28 +3008,28 @@
         <v>0</v>
       </c>
       <c r="CV5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CW5" t="n">
-        <v>0</v>
+        <v>-0.09309194887264384</v>
       </c>
       <c r="CX5" t="n">
-        <v>-0.05999721753249365</v>
+        <v>-0</v>
       </c>
       <c r="CY5" t="n">
-        <v>0.01030367961075663</v>
+        <v>0</v>
       </c>
       <c r="CZ5" t="n">
-        <v>0.01550218858245504</v>
+        <v>-0.04872951748594139</v>
       </c>
       <c r="DA5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DB5" t="n">
-        <v>-0</v>
+        <v>0.06359540039761882</v>
       </c>
       <c r="DC5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DD5" t="n">
         <v>0</v>
@@ -3038,22 +3038,22 @@
         <v>0</v>
       </c>
       <c r="DF5" t="n">
-        <v>-0</v>
+        <v>-0.09328536299324547</v>
       </c>
       <c r="DG5" t="n">
-        <v>-0.03406424574656398</v>
+        <v>-0</v>
       </c>
       <c r="DH5" t="n">
-        <v>0.002430695596235008</v>
+        <v>0</v>
       </c>
       <c r="DI5" t="n">
-        <v>0.03265789737391991</v>
+        <v>0.04953603453872363</v>
       </c>
       <c r="DJ5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DK5" t="n">
-        <v>0</v>
+        <v>0.02478288452367555</v>
       </c>
       <c r="DL5" t="n">
         <v>-0</v>
@@ -3062,220 +3062,220 @@
         <v>0</v>
       </c>
       <c r="DN5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DO5" t="n">
-        <v>-0</v>
+        <v>0.009481483605645553</v>
       </c>
       <c r="DP5" t="n">
-        <v>0.01343929276360771</v>
+        <v>0</v>
       </c>
       <c r="DQ5" t="n">
-        <v>0.007085933114968227</v>
+        <v>-0</v>
       </c>
       <c r="DR5" t="n">
-        <v>-0.02019285567001681</v>
+        <v>-0.01798777526596903</v>
       </c>
       <c r="DS5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DT5" t="n">
-        <v>-0</v>
+        <v>0.02462383482836847</v>
       </c>
       <c r="DU5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DV5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DW5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DX5" t="n">
-        <v>0</v>
+        <v>-0.115132119306246</v>
       </c>
       <c r="DY5" t="n">
-        <v>-0.02281503168860209</v>
+        <v>-0</v>
       </c>
       <c r="DZ5" t="n">
-        <v>-0.007994977255877</v>
+        <v>0</v>
       </c>
       <c r="EA5" t="n">
-        <v>-6.699715152056536e-05</v>
+        <v>-0.006269156882580773</v>
       </c>
       <c r="EB5" t="n">
         <v>0</v>
       </c>
       <c r="EC5" t="n">
-        <v>-0</v>
+        <v>0.01589542512901682</v>
       </c>
       <c r="ED5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EE5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EF5" t="n">
         <v>-0</v>
       </c>
       <c r="EG5" t="n">
-        <v>0</v>
+        <v>-0.0711763580756162</v>
       </c>
       <c r="EH5" t="n">
-        <v>-0.07977125249871676</v>
+        <v>-0</v>
       </c>
       <c r="EI5" t="n">
-        <v>0.04862109168118905</v>
+        <v>-0</v>
       </c>
       <c r="EJ5" t="n">
-        <v>0.02539465655062505</v>
+        <v>-0.003814026542092944</v>
       </c>
       <c r="EK5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EL5" t="n">
-        <v>0</v>
+        <v>0.06807198944751494</v>
       </c>
       <c r="EM5" t="n">
         <v>-0</v>
       </c>
       <c r="EN5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EO5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EP5" t="n">
-        <v>-0</v>
+        <v>-0.0845497419461539</v>
       </c>
       <c r="EQ5" t="n">
-        <v>-0.01850689919185034</v>
+        <v>0</v>
       </c>
       <c r="ER5" t="n">
-        <v>-0.0008538399911303345</v>
+        <v>-0</v>
       </c>
       <c r="ES5" t="n">
-        <v>0.01883308127498675</v>
+        <v>-0.1123588133441534</v>
       </c>
       <c r="ET5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EU5" t="n">
-        <v>0</v>
+        <v>-0.05339809223323486</v>
       </c>
       <c r="EV5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EW5" t="n">
         <v>-0</v>
       </c>
       <c r="EX5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EY5" t="n">
-        <v>-0</v>
+        <v>-0.09827080349572793</v>
       </c>
       <c r="EZ5" t="n">
-        <v>-0.05814287225973834</v>
+        <v>-0</v>
       </c>
       <c r="FA5" t="n">
-        <v>0.01078199293244495</v>
+        <v>-0</v>
       </c>
       <c r="FB5" t="n">
-        <v>0.01371256955734207</v>
+        <v>-0.05892744367984654</v>
       </c>
       <c r="FC5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FD5" t="n">
-        <v>0</v>
+        <v>0.06528282513549338</v>
       </c>
       <c r="FE5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FF5" t="n">
         <v>-0</v>
       </c>
       <c r="FG5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FH5" t="n">
-        <v>-0</v>
+        <v>-0.007165364785449029</v>
       </c>
       <c r="FI5" t="n">
-        <v>0.07997461314803452</v>
+        <v>0</v>
       </c>
       <c r="FJ5" t="n">
-        <v>0.01869214397933959</v>
+        <v>0</v>
       </c>
       <c r="FK5" t="n">
-        <v>0.002961693551839514</v>
+        <v>-0.02342363256416062</v>
       </c>
       <c r="FL5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FM5" t="n">
-        <v>-0</v>
+        <v>0.003494324961864666</v>
       </c>
       <c r="FN5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FO5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FP5" t="n">
         <v>0</v>
       </c>
       <c r="FQ5" t="n">
-        <v>-0</v>
+        <v>-0.01187518842025042</v>
       </c>
       <c r="FR5" t="n">
-        <v>-0.004280126486552164</v>
+        <v>0</v>
       </c>
       <c r="FS5" t="n">
-        <v>-0.05050770465525952</v>
+        <v>-0</v>
       </c>
       <c r="FT5" t="n">
-        <v>-0.0004959940348419582</v>
+        <v>-0.0005678899250277649</v>
       </c>
       <c r="FU5" t="n">
         <v>-0</v>
       </c>
       <c r="FV5" t="n">
-        <v>-0</v>
+        <v>0.06073783121705328</v>
       </c>
       <c r="FW5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FX5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FY5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FZ5" t="n">
-        <v>0</v>
+        <v>-0.04909532501790893</v>
       </c>
       <c r="GA5" t="n">
-        <v>0.07356512312249057</v>
+        <v>0</v>
       </c>
       <c r="GB5" t="n">
-        <v>0.04089311882128405</v>
+        <v>-0</v>
       </c>
       <c r="GC5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="GD5" t="n">
         <v>-0</v>
       </c>
       <c r="GE5" t="n">
-        <v>0</v>
+        <v>-0.03705001528004435</v>
       </c>
       <c r="GF5" t="n">
         <v>-0</v>
       </c>
       <c r="GG5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="6">
@@ -3283,10 +3283,10 @@
         <v>0</v>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
@@ -3310,10 +3310,10 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="L6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -3337,10 +3337,10 @@
         <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="U6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -3364,10 +3364,10 @@
         <v>0</v>
       </c>
       <c r="AC6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AD6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AE6" t="n">
         <v>0</v>
@@ -3391,10 +3391,10 @@
         <v>0</v>
       </c>
       <c r="AL6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AM6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AN6" t="n">
         <v>0</v>
@@ -3418,10 +3418,10 @@
         <v>0</v>
       </c>
       <c r="AU6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AV6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AW6" t="n">
         <v>0</v>
@@ -3445,10 +3445,10 @@
         <v>0</v>
       </c>
       <c r="BD6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BE6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BF6" t="n">
         <v>0</v>
@@ -3472,10 +3472,10 @@
         <v>0</v>
       </c>
       <c r="BM6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BN6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BO6" t="n">
         <v>0</v>
@@ -3499,10 +3499,10 @@
         <v>0</v>
       </c>
       <c r="BV6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BW6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BX6" t="n">
         <v>0</v>
@@ -3526,10 +3526,10 @@
         <v>0</v>
       </c>
       <c r="CE6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CF6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CG6" t="n">
         <v>0</v>
@@ -3553,10 +3553,10 @@
         <v>0</v>
       </c>
       <c r="CN6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CO6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CP6" t="n">
         <v>0</v>
@@ -3607,10 +3607,10 @@
         <v>0</v>
       </c>
       <c r="DF6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DG6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DH6" t="n">
         <v>0</v>
@@ -3634,10 +3634,10 @@
         <v>0</v>
       </c>
       <c r="DO6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DP6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DQ6" t="n">
         <v>0</v>
@@ -3661,10 +3661,10 @@
         <v>0</v>
       </c>
       <c r="DX6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DY6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DZ6" t="n">
         <v>0</v>
@@ -3688,10 +3688,10 @@
         <v>0</v>
       </c>
       <c r="EG6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EH6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EI6" t="n">
         <v>0</v>
@@ -3715,10 +3715,10 @@
         <v>0</v>
       </c>
       <c r="EP6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EQ6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="ER6" t="n">
         <v>0</v>
@@ -3742,10 +3742,10 @@
         <v>0</v>
       </c>
       <c r="EY6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EZ6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FA6" t="n">
         <v>0</v>
@@ -3796,10 +3796,10 @@
         <v>0</v>
       </c>
       <c r="FQ6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FR6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FS6" t="n">
         <v>0</v>
@@ -3849,19 +3849,19 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>-0.4476608134293789</v>
+        <v>0</v>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>0.4365102872371688</v>
       </c>
       <c r="C7" t="n">
-        <v>0.3481401166595073</v>
+        <v>-0</v>
       </c>
       <c r="D7" t="n">
-        <v>-0</v>
+        <v>-0.3611492832469658</v>
       </c>
       <c r="E7" t="n">
-        <v>-0.1857177785230096</v>
+        <v>-0.01135874265310389</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -3870,25 +3870,25 @@
         <v>-0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>-0.4233104368928787</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>-0</v>
+        <v>0.452914743979049</v>
       </c>
       <c r="L7" t="n">
-        <v>0.5260075756020454</v>
+        <v>0</v>
       </c>
       <c r="M7" t="n">
-        <v>-0</v>
+        <v>-0.3697941711078131</v>
       </c>
       <c r="N7" t="n">
-        <v>0.05802046753405666</v>
+        <v>-0.09054716269225273</v>
       </c>
       <c r="O7" t="n">
         <v>0</v>
@@ -3903,19 +3903,19 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>-0.06139471392145339</v>
+        <v>-0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>0.1907727009361307</v>
       </c>
       <c r="U7" t="n">
-        <v>0.1857278092146978</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>-0</v>
+        <v>-0.043983623668901</v>
       </c>
       <c r="W7" t="n">
-        <v>0.2383509784115614</v>
+        <v>0.1470746024281799</v>
       </c>
       <c r="X7" t="n">
         <v>-0</v>
@@ -3930,100 +3930,100 @@
         <v>0</v>
       </c>
       <c r="AB7" t="n">
-        <v>0.009981468308800093</v>
+        <v>-0</v>
       </c>
       <c r="AC7" t="n">
-        <v>0</v>
+        <v>0.06421759750593643</v>
       </c>
       <c r="AD7" t="n">
-        <v>-0.08268840892796904</v>
+        <v>-0</v>
       </c>
       <c r="AE7" t="n">
-        <v>0</v>
+        <v>-0.00390028154312514</v>
       </c>
       <c r="AF7" t="n">
-        <v>-0.1277463841027243</v>
+        <v>-0.001779309647612596</v>
       </c>
       <c r="AG7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AH7" t="n">
         <v>-0</v>
       </c>
       <c r="AI7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AJ7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AK7" t="n">
-        <v>-0.205937751624642</v>
+        <v>0</v>
       </c>
       <c r="AL7" t="n">
-        <v>-0</v>
+        <v>0.04083924112515695</v>
       </c>
       <c r="AM7" t="n">
-        <v>0.06553279604774562</v>
+        <v>0</v>
       </c>
       <c r="AN7" t="n">
-        <v>-0</v>
+        <v>-0.09710914511915773</v>
       </c>
       <c r="AO7" t="n">
-        <v>0.03442187790100854</v>
+        <v>-0.07736631215413579</v>
       </c>
       <c r="AP7" t="n">
         <v>0</v>
       </c>
       <c r="AQ7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AR7" t="n">
         <v>-0</v>
       </c>
       <c r="AS7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AT7" t="n">
-        <v>-0.4729119112683222</v>
+        <v>-0</v>
       </c>
       <c r="AU7" t="n">
-        <v>-0</v>
+        <v>0.6390966638560518</v>
       </c>
       <c r="AV7" t="n">
-        <v>0.3665668684265576</v>
+        <v>-0</v>
       </c>
       <c r="AW7" t="n">
-        <v>-0</v>
+        <v>-0.1461611263275657</v>
       </c>
       <c r="AX7" t="n">
-        <v>0.06656466363654907</v>
+        <v>0.1481305220316922</v>
       </c>
       <c r="AY7" t="n">
         <v>-0</v>
       </c>
       <c r="AZ7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BA7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BB7" t="n">
         <v>-0</v>
       </c>
       <c r="BC7" t="n">
-        <v>-0.08659820212107311</v>
+        <v>0</v>
       </c>
       <c r="BD7" t="n">
-        <v>-0</v>
+        <v>0.07366102874875759</v>
       </c>
       <c r="BE7" t="n">
-        <v>0.1125979642493072</v>
+        <v>0</v>
       </c>
       <c r="BF7" t="n">
-        <v>-0</v>
+        <v>-0.1528441524405048</v>
       </c>
       <c r="BG7" t="n">
-        <v>-0.2264184698933167</v>
+        <v>-0.1471946877875379</v>
       </c>
       <c r="BH7" t="n">
         <v>0</v>
@@ -4032,28 +4032,28 @@
         <v>-0</v>
       </c>
       <c r="BJ7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BK7" t="n">
         <v>0</v>
       </c>
       <c r="BL7" t="n">
-        <v>0.1235584423242186</v>
+        <v>-0</v>
       </c>
       <c r="BM7" t="n">
-        <v>-0</v>
+        <v>0.0977853992929627</v>
       </c>
       <c r="BN7" t="n">
-        <v>-0.1722879152103048</v>
+        <v>-0</v>
       </c>
       <c r="BO7" t="n">
-        <v>-0</v>
+        <v>0.0633695606674405</v>
       </c>
       <c r="BP7" t="n">
-        <v>-0.1909867517733564</v>
+        <v>0.2026984663717152</v>
       </c>
       <c r="BQ7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BR7" t="n">
         <v>-0</v>
@@ -4062,49 +4062,49 @@
         <v>-0</v>
       </c>
       <c r="BT7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BU7" t="n">
-        <v>-0.4210260556990297</v>
+        <v>-0</v>
       </c>
       <c r="BV7" t="n">
-        <v>-0</v>
+        <v>0.303193565739888</v>
       </c>
       <c r="BW7" t="n">
-        <v>0.1986086013906101</v>
+        <v>0</v>
       </c>
       <c r="BX7" t="n">
-        <v>-0</v>
+        <v>-0.08023883714610111</v>
       </c>
       <c r="BY7" t="n">
-        <v>-0.05220972900454691</v>
+        <v>0.1338554503019364</v>
       </c>
       <c r="BZ7" t="n">
         <v>0</v>
       </c>
       <c r="CA7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CB7" t="n">
         <v>-0</v>
       </c>
       <c r="CC7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CD7" t="n">
-        <v>0.1823215391013089</v>
+        <v>-0</v>
       </c>
       <c r="CE7" t="n">
-        <v>-0</v>
+        <v>-0.1398377468101697</v>
       </c>
       <c r="CF7" t="n">
-        <v>-0.1142032181086052</v>
+        <v>0</v>
       </c>
       <c r="CG7" t="n">
-        <v>0</v>
+        <v>0.06420967484831724</v>
       </c>
       <c r="CH7" t="n">
-        <v>0.05338238462382589</v>
+        <v>-0.03853093079771222</v>
       </c>
       <c r="CI7" t="n">
         <v>-0</v>
@@ -4113,106 +4113,106 @@
         <v>-0</v>
       </c>
       <c r="CK7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CL7" t="n">
         <v>0</v>
       </c>
       <c r="CM7" t="n">
-        <v>0.06290551651796041</v>
+        <v>0</v>
       </c>
       <c r="CN7" t="n">
-        <v>0</v>
+        <v>-0.01185099354277087</v>
       </c>
       <c r="CO7" t="n">
-        <v>0.02500929803993535</v>
+        <v>0</v>
       </c>
       <c r="CP7" t="n">
-        <v>0</v>
+        <v>-0.1074905016715049</v>
       </c>
       <c r="CQ7" t="n">
-        <v>0.1056942262878059</v>
+        <v>-0.1017836322112222</v>
       </c>
       <c r="CR7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CS7" t="n">
         <v>-0</v>
       </c>
       <c r="CT7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CU7" t="n">
         <v>0</v>
       </c>
       <c r="CV7" t="n">
-        <v>0.1476091845806735</v>
+        <v>0</v>
       </c>
       <c r="CW7" t="n">
-        <v>0</v>
+        <v>-0.130576763186451</v>
       </c>
       <c r="CX7" t="n">
-        <v>-0.1230093543757179</v>
+        <v>-0</v>
       </c>
       <c r="CY7" t="n">
-        <v>0</v>
+        <v>0.1006319348116828</v>
       </c>
       <c r="CZ7" t="n">
-        <v>0.1112585550217063</v>
+        <v>-0.04614396433447721</v>
       </c>
       <c r="DA7" t="n">
         <v>0</v>
       </c>
       <c r="DB7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DC7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DD7" t="n">
         <v>0</v>
       </c>
       <c r="DE7" t="n">
-        <v>-0.07426581487165944</v>
+        <v>0</v>
       </c>
       <c r="DF7" t="n">
-        <v>-0</v>
+        <v>-0.09693579429804144</v>
       </c>
       <c r="DG7" t="n">
-        <v>-0.038266313775041</v>
+        <v>0</v>
       </c>
       <c r="DH7" t="n">
-        <v>-0</v>
+        <v>0.06218897889433424</v>
       </c>
       <c r="DI7" t="n">
-        <v>0.08938183119968932</v>
+        <v>-0.06200448919567968</v>
       </c>
       <c r="DJ7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DK7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DL7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DM7" t="n">
         <v>0</v>
       </c>
       <c r="DN7" t="n">
-        <v>0.1012360622664586</v>
+        <v>-0</v>
       </c>
       <c r="DO7" t="n">
-        <v>-0</v>
+        <v>0.01522923821981897</v>
       </c>
       <c r="DP7" t="n">
-        <v>0.1005185320153617</v>
+        <v>0</v>
       </c>
       <c r="DQ7" t="n">
-        <v>-0</v>
+        <v>-0.09305624298659931</v>
       </c>
       <c r="DR7" t="n">
-        <v>-0.1462825553983393</v>
+        <v>-0.1245753163535222</v>
       </c>
       <c r="DS7" t="n">
         <v>0</v>
@@ -4227,46 +4227,46 @@
         <v>0</v>
       </c>
       <c r="DW7" t="n">
-        <v>0.08629993418559072</v>
+        <v>-0</v>
       </c>
       <c r="DX7" t="n">
-        <v>0</v>
+        <v>0.0550020124549811</v>
       </c>
       <c r="DY7" t="n">
-        <v>0.05482798524397429</v>
+        <v>0</v>
       </c>
       <c r="DZ7" t="n">
-        <v>0</v>
+        <v>-0.02980452436472483</v>
       </c>
       <c r="EA7" t="n">
-        <v>0.158006845391724</v>
+        <v>-0.07478533683956096</v>
       </c>
       <c r="EB7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EC7" t="n">
         <v>0</v>
       </c>
       <c r="ED7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EE7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EF7" t="n">
-        <v>0.2289918558484806</v>
+        <v>0</v>
       </c>
       <c r="EG7" t="n">
-        <v>-0</v>
+        <v>-0.1136577387338489</v>
       </c>
       <c r="EH7" t="n">
-        <v>-0.1617867692872028</v>
+        <v>0</v>
       </c>
       <c r="EI7" t="n">
-        <v>-0</v>
+        <v>0.0777499734688728</v>
       </c>
       <c r="EJ7" t="n">
-        <v>0.02234309964433338</v>
+        <v>0.07204926951424286</v>
       </c>
       <c r="EK7" t="n">
         <v>-0</v>
@@ -4278,103 +4278,103 @@
         <v>-0</v>
       </c>
       <c r="EN7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EO7" t="n">
-        <v>0.05254913163941082</v>
+        <v>0</v>
       </c>
       <c r="EP7" t="n">
-        <v>-0</v>
+        <v>-0.1535539180305159</v>
       </c>
       <c r="EQ7" t="n">
-        <v>-0.1215276621691537</v>
+        <v>0</v>
       </c>
       <c r="ER7" t="n">
-        <v>-0</v>
+        <v>0.07361892816030186</v>
       </c>
       <c r="ES7" t="n">
-        <v>0.1115288460878589</v>
+        <v>0.02130428756263552</v>
       </c>
       <c r="ET7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EU7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EV7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EW7" t="n">
         <v>-0</v>
       </c>
       <c r="EX7" t="n">
-        <v>0.1809176089230126</v>
+        <v>0</v>
       </c>
       <c r="EY7" t="n">
-        <v>-0</v>
+        <v>-0.1362508752574995</v>
       </c>
       <c r="EZ7" t="n">
-        <v>-0.122102126477645</v>
+        <v>0</v>
       </c>
       <c r="FA7" t="n">
-        <v>-0</v>
+        <v>0.07729536289374792</v>
       </c>
       <c r="FB7" t="n">
-        <v>0.09143346309172347</v>
+        <v>-0.04549929567386099</v>
       </c>
       <c r="FC7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FD7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FE7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FF7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FG7" t="n">
-        <v>0.239579471770054</v>
+        <v>0</v>
       </c>
       <c r="FH7" t="n">
-        <v>0</v>
+        <v>-0.04545778187734946</v>
       </c>
       <c r="FI7" t="n">
-        <v>-0.08569511045359139</v>
+        <v>-0</v>
       </c>
       <c r="FJ7" t="n">
-        <v>0</v>
+        <v>0.128863500034553</v>
       </c>
       <c r="FK7" t="n">
-        <v>-0.06838132884509437</v>
+        <v>-0.04835632130830609</v>
       </c>
       <c r="FL7" t="n">
         <v>-0</v>
       </c>
       <c r="FM7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FN7" t="n">
         <v>-0</v>
       </c>
       <c r="FO7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FP7" t="n">
-        <v>0.08377839970889402</v>
+        <v>0</v>
       </c>
       <c r="FQ7" t="n">
-        <v>-0</v>
+        <v>-0.01901674241117042</v>
       </c>
       <c r="FR7" t="n">
-        <v>-0.01848968981156544</v>
+        <v>-0</v>
       </c>
       <c r="FS7" t="n">
-        <v>0</v>
+        <v>0.1007755355971119</v>
       </c>
       <c r="FT7" t="n">
-        <v>0.01441642536266629</v>
+        <v>0.003998648680048871</v>
       </c>
       <c r="FU7" t="n">
         <v>-0</v>
@@ -4383,37 +4383,37 @@
         <v>-0</v>
       </c>
       <c r="FW7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FX7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FY7" t="n">
-        <v>-0.07840821405885028</v>
+        <v>-0</v>
       </c>
       <c r="FZ7" t="n">
-        <v>-0</v>
+        <v>0.03864511982969442</v>
       </c>
       <c r="GA7" t="n">
-        <v>0.1012809927545334</v>
+        <v>-0</v>
       </c>
       <c r="GB7" t="n">
-        <v>0</v>
+        <v>-0.1173324706521157</v>
       </c>
       <c r="GC7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="GD7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="GE7" t="n">
         <v>-0</v>
       </c>
       <c r="GF7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="GG7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="8">
@@ -4421,100 +4421,100 @@
         <v>0</v>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>0.3657294864590698</v>
       </c>
       <c r="C8" t="n">
-        <v>0.3051706726869859</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0.03832341321898465</v>
+        <v>-0.06839411686728575</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>-0.1881795368389593</v>
       </c>
       <c r="G8" t="n">
         <v>-0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I8" t="n">
-        <v>-0.116344279058762</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>0.3482089244628186</v>
       </c>
       <c r="L8" t="n">
-        <v>0.3954898139691638</v>
+        <v>0</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>0.1561910273764538</v>
+        <v>-0.06650991151649506</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>-0.346435446478965</v>
       </c>
       <c r="P8" t="n">
         <v>-0</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="R8" t="n">
-        <v>-0.2096788972673768</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>0.09379528030597573</v>
       </c>
       <c r="U8" t="n">
-        <v>0.01658852973254798</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>-0.08331789168587458</v>
+        <v>-0.06790868716935584</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>0.04401100269575666</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="Z8" t="n">
         <v>0</v>
       </c>
       <c r="AA8" t="n">
-        <v>-0.03664922722517444</v>
+        <v>0</v>
       </c>
       <c r="AB8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AC8" t="n">
-        <v>-0</v>
+        <v>0.03252902186089951</v>
       </c>
       <c r="AD8" t="n">
-        <v>-0.01786838779018478</v>
+        <v>0</v>
       </c>
       <c r="AE8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AF8" t="n">
-        <v>0.03196473188702926</v>
+        <v>0.02315983523660043</v>
       </c>
       <c r="AG8" t="n">
-        <v>0</v>
+        <v>0.006369503387716356</v>
       </c>
       <c r="AH8" t="n">
         <v>-0</v>
@@ -4523,79 +4523,79 @@
         <v>-0</v>
       </c>
       <c r="AJ8" t="n">
-        <v>0.04300560595181499</v>
+        <v>0</v>
       </c>
       <c r="AK8" t="n">
         <v>0</v>
       </c>
       <c r="AL8" t="n">
-        <v>-0</v>
+        <v>0.08150769383833242</v>
       </c>
       <c r="AM8" t="n">
-        <v>0.08740710389768956</v>
+        <v>-0</v>
       </c>
       <c r="AN8" t="n">
         <v>0</v>
       </c>
       <c r="AO8" t="n">
-        <v>0.08658388273081873</v>
+        <v>-0.00241974365164512</v>
       </c>
       <c r="AP8" t="n">
-        <v>0</v>
+        <v>-0.1151080090335346</v>
       </c>
       <c r="AQ8" t="n">
         <v>-0</v>
       </c>
       <c r="AR8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AS8" t="n">
-        <v>-0.03038125327253246</v>
+        <v>0</v>
       </c>
       <c r="AT8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AU8" t="n">
-        <v>-0</v>
+        <v>0.4281433869428349</v>
       </c>
       <c r="AV8" t="n">
-        <v>0.2701768233973276</v>
+        <v>-0</v>
       </c>
       <c r="AW8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AX8" t="n">
-        <v>0.01788623851837367</v>
+        <v>-0.1086663308935397</v>
       </c>
       <c r="AY8" t="n">
-        <v>-0</v>
+        <v>-0.2872056118960397</v>
       </c>
       <c r="AZ8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BA8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BB8" t="n">
-        <v>-0.1796008204302161</v>
+        <v>0</v>
       </c>
       <c r="BC8" t="n">
         <v>0</v>
       </c>
       <c r="BD8" t="n">
-        <v>0</v>
+        <v>0.1169333763380754</v>
       </c>
       <c r="BE8" t="n">
-        <v>0.1437216765641724</v>
+        <v>0</v>
       </c>
       <c r="BF8" t="n">
         <v>0</v>
       </c>
       <c r="BG8" t="n">
-        <v>-0.02561056758123</v>
+        <v>-0.09554721055399787</v>
       </c>
       <c r="BH8" t="n">
-        <v>0</v>
+        <v>-0.06024200169568319</v>
       </c>
       <c r="BI8" t="n">
         <v>-0</v>
@@ -4604,106 +4604,106 @@
         <v>0</v>
       </c>
       <c r="BK8" t="n">
-        <v>0.006601407832654199</v>
+        <v>-0</v>
       </c>
       <c r="BL8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BM8" t="n">
-        <v>0</v>
+        <v>0.1130831352205336</v>
       </c>
       <c r="BN8" t="n">
-        <v>-0.116717370642913</v>
+        <v>0</v>
       </c>
       <c r="BO8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BP8" t="n">
-        <v>-0.08540885329063301</v>
+        <v>-0.005395970299287962</v>
       </c>
       <c r="BQ8" t="n">
-        <v>0</v>
+        <v>0.02802567217115953</v>
       </c>
       <c r="BR8" t="n">
         <v>-0</v>
       </c>
       <c r="BS8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BT8" t="n">
-        <v>0.09467553507013168</v>
+        <v>-0</v>
       </c>
       <c r="BU8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BV8" t="n">
-        <v>0</v>
+        <v>0.2205941897360093</v>
       </c>
       <c r="BW8" t="n">
-        <v>0.1999160191301344</v>
+        <v>0</v>
       </c>
       <c r="BX8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BY8" t="n">
-        <v>-0.02520358907101464</v>
+        <v>-0.0711807782769911</v>
       </c>
       <c r="BZ8" t="n">
-        <v>0</v>
+        <v>-0.1011436130861831</v>
       </c>
       <c r="CA8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CB8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CC8" t="n">
-        <v>-0.1734335027479659</v>
+        <v>0</v>
       </c>
       <c r="CD8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CE8" t="n">
-        <v>-0</v>
+        <v>-0.1152138805048414</v>
       </c>
       <c r="CF8" t="n">
-        <v>-0.1059308215474523</v>
+        <v>0</v>
       </c>
       <c r="CG8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CH8" t="n">
-        <v>-0.04895889296631058</v>
+        <v>-0.02267636061497144</v>
       </c>
       <c r="CI8" t="n">
-        <v>-0</v>
+        <v>0.0996067999021835</v>
       </c>
       <c r="CJ8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CK8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CL8" t="n">
-        <v>0.05429843602551164</v>
+        <v>0</v>
       </c>
       <c r="CM8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CN8" t="n">
-        <v>-0</v>
+        <v>-0.01187254690033768</v>
       </c>
       <c r="CO8" t="n">
-        <v>-0.01724765238864633</v>
+        <v>-0</v>
       </c>
       <c r="CP8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CQ8" t="n">
-        <v>0.06127306340633173</v>
+        <v>0.02534403456750108</v>
       </c>
       <c r="CR8" t="n">
-        <v>0</v>
+        <v>-0.02327705574457894</v>
       </c>
       <c r="CS8" t="n">
         <v>-0</v>
@@ -4712,52 +4712,52 @@
         <v>-0</v>
       </c>
       <c r="CU8" t="n">
-        <v>-0.06651510167360278</v>
+        <v>-0</v>
       </c>
       <c r="CV8" t="n">
         <v>-0</v>
       </c>
       <c r="CW8" t="n">
-        <v>-0</v>
+        <v>-0.09782871045936212</v>
       </c>
       <c r="CX8" t="n">
-        <v>-0.0966235296080821</v>
+        <v>-0</v>
       </c>
       <c r="CY8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CZ8" t="n">
-        <v>-0.004577746160800053</v>
+        <v>-0.01726083727336404</v>
       </c>
       <c r="DA8" t="n">
-        <v>-0</v>
+        <v>0.1130786542341605</v>
       </c>
       <c r="DB8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DC8" t="n">
         <v>-0</v>
       </c>
       <c r="DD8" t="n">
-        <v>0.04734977335252974</v>
+        <v>-0</v>
       </c>
       <c r="DE8" t="n">
         <v>0</v>
       </c>
       <c r="DF8" t="n">
-        <v>-0</v>
+        <v>-0.1025299013921074</v>
       </c>
       <c r="DG8" t="n">
-        <v>-0.0632972931621644</v>
+        <v>0</v>
       </c>
       <c r="DH8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DI8" t="n">
-        <v>0.1151330648196638</v>
+        <v>0.04658813252711668</v>
       </c>
       <c r="DJ8" t="n">
-        <v>0</v>
+        <v>-0.04678165012369367</v>
       </c>
       <c r="DK8" t="n">
         <v>0</v>
@@ -4766,223 +4766,223 @@
         <v>0</v>
       </c>
       <c r="DM8" t="n">
-        <v>-0.025080118197888</v>
+        <v>0</v>
       </c>
       <c r="DN8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DO8" t="n">
-        <v>-0</v>
+        <v>-0.02181620679931375</v>
       </c>
       <c r="DP8" t="n">
-        <v>-0.0150235056960008</v>
+        <v>0</v>
       </c>
       <c r="DQ8" t="n">
         <v>-0</v>
       </c>
       <c r="DR8" t="n">
-        <v>-0.07335139221306704</v>
+        <v>0.001382878384361716</v>
       </c>
       <c r="DS8" t="n">
-        <v>0</v>
+        <v>-0.003078041075038944</v>
       </c>
       <c r="DT8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DU8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DV8" t="n">
-        <v>-0.1271979775823847</v>
+        <v>0</v>
       </c>
       <c r="DW8" t="n">
         <v>-0</v>
       </c>
       <c r="DX8" t="n">
-        <v>0</v>
+        <v>0.07832679000541</v>
       </c>
       <c r="DY8" t="n">
-        <v>0.08206995080927623</v>
+        <v>0</v>
       </c>
       <c r="DZ8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EA8" t="n">
-        <v>0.01849746896134384</v>
+        <v>-0.02790307995403161</v>
       </c>
       <c r="EB8" t="n">
-        <v>-0</v>
+        <v>-0.06073025862337283</v>
       </c>
       <c r="EC8" t="n">
         <v>-0</v>
       </c>
       <c r="ED8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EE8" t="n">
-        <v>-0.01144546923198176</v>
+        <v>-0</v>
       </c>
       <c r="EF8" t="n">
         <v>0</v>
       </c>
       <c r="EG8" t="n">
-        <v>0</v>
+        <v>-0.08277365153212229</v>
       </c>
       <c r="EH8" t="n">
-        <v>-0.1021508782337684</v>
+        <v>0</v>
       </c>
       <c r="EI8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EJ8" t="n">
-        <v>-0.154632790693866</v>
+        <v>0.02362564249326308</v>
       </c>
       <c r="EK8" t="n">
-        <v>0</v>
+        <v>0.09448095575954674</v>
       </c>
       <c r="EL8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EM8" t="n">
         <v>-0</v>
       </c>
       <c r="EN8" t="n">
-        <v>0.02469833933257141</v>
+        <v>-0</v>
       </c>
       <c r="EO8" t="n">
         <v>0</v>
       </c>
       <c r="EP8" t="n">
-        <v>0</v>
+        <v>-0.04130795210460136</v>
       </c>
       <c r="EQ8" t="n">
-        <v>0.05171737763153018</v>
+        <v>0</v>
       </c>
       <c r="ER8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="ES8" t="n">
-        <v>0.04414144473694539</v>
+        <v>-0.02828903146425448</v>
       </c>
       <c r="ET8" t="n">
-        <v>0</v>
+        <v>0.06404034836998941</v>
       </c>
       <c r="EU8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EV8" t="n">
         <v>0</v>
       </c>
       <c r="EW8" t="n">
-        <v>0.1558468578845313</v>
+        <v>-0</v>
       </c>
       <c r="EX8" t="n">
         <v>0</v>
       </c>
       <c r="EY8" t="n">
-        <v>0</v>
+        <v>-0.09788838961276468</v>
       </c>
       <c r="EZ8" t="n">
-        <v>-0.1071240855547543</v>
+        <v>0</v>
       </c>
       <c r="FA8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FB8" t="n">
-        <v>-0.02095078484620741</v>
+        <v>-0.01899407976525673</v>
       </c>
       <c r="FC8" t="n">
-        <v>0</v>
+        <v>0.1026126039976169</v>
       </c>
       <c r="FD8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FE8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FF8" t="n">
-        <v>0.06661852132679166</v>
+        <v>0</v>
       </c>
       <c r="FG8" t="n">
         <v>0</v>
       </c>
       <c r="FH8" t="n">
-        <v>-0</v>
+        <v>-0.03551069325321764</v>
       </c>
       <c r="FI8" t="n">
-        <v>-0.1172239770579461</v>
+        <v>-0</v>
       </c>
       <c r="FJ8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FK8" t="n">
-        <v>0.1010096789475045</v>
+        <v>-0.04579582130306877</v>
       </c>
       <c r="FL8" t="n">
-        <v>-0</v>
+        <v>0.09056353873254956</v>
       </c>
       <c r="FM8" t="n">
         <v>0</v>
       </c>
       <c r="FN8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FO8" t="n">
-        <v>0.06639562922896894</v>
+        <v>0</v>
       </c>
       <c r="FP8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FQ8" t="n">
-        <v>-0</v>
+        <v>-0.01611264805669968</v>
       </c>
       <c r="FR8" t="n">
-        <v>-0.02253026731219442</v>
+        <v>-0</v>
       </c>
       <c r="FS8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FT8" t="n">
-        <v>0.009638746121589646</v>
+        <v>0.01478243666442915</v>
       </c>
       <c r="FU8" t="n">
-        <v>-0</v>
+        <v>0.05498046655220845</v>
       </c>
       <c r="FV8" t="n">
         <v>-0</v>
       </c>
       <c r="FW8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FX8" t="n">
-        <v>0.1388104002110435</v>
+        <v>0</v>
       </c>
       <c r="FY8" t="n">
         <v>-0</v>
       </c>
       <c r="FZ8" t="n">
-        <v>-0</v>
+        <v>-0.01403983031796241</v>
       </c>
       <c r="GA8" t="n">
-        <v>0.0782253862120831</v>
+        <v>-0</v>
       </c>
       <c r="GB8" t="n">
         <v>-0</v>
       </c>
       <c r="GC8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="GD8" t="n">
-        <v>0</v>
+        <v>-0.08193779274621041</v>
       </c>
       <c r="GE8" t="n">
         <v>-0</v>
       </c>
       <c r="GF8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="GG8" t="n">
-        <v>0.1054018098346053</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="9">
@@ -4990,10 +4990,10 @@
         <v>0</v>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
@@ -5017,10 +5017,10 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="L9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -5044,10 +5044,10 @@
         <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="U9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -5071,10 +5071,10 @@
         <v>0</v>
       </c>
       <c r="AC9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AD9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AE9" t="n">
         <v>0</v>
@@ -5098,10 +5098,10 @@
         <v>0</v>
       </c>
       <c r="AL9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AM9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AN9" t="n">
         <v>0</v>
@@ -5125,10 +5125,10 @@
         <v>0</v>
       </c>
       <c r="AU9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AV9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AW9" t="n">
         <v>0</v>
@@ -5152,10 +5152,10 @@
         <v>0</v>
       </c>
       <c r="BD9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BE9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BF9" t="n">
         <v>0</v>
@@ -5179,10 +5179,10 @@
         <v>0</v>
       </c>
       <c r="BM9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BN9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BO9" t="n">
         <v>0</v>
@@ -5206,10 +5206,10 @@
         <v>0</v>
       </c>
       <c r="BV9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BW9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BX9" t="n">
         <v>0</v>
@@ -5233,10 +5233,10 @@
         <v>0</v>
       </c>
       <c r="CE9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CF9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CG9" t="n">
         <v>0</v>
@@ -5260,10 +5260,10 @@
         <v>0</v>
       </c>
       <c r="CN9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CO9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CP9" t="n">
         <v>0</v>
@@ -5314,10 +5314,10 @@
         <v>0</v>
       </c>
       <c r="DF9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DG9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DH9" t="n">
         <v>0</v>
@@ -5341,10 +5341,10 @@
         <v>0</v>
       </c>
       <c r="DO9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DP9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DQ9" t="n">
         <v>0</v>
@@ -5395,10 +5395,10 @@
         <v>0</v>
       </c>
       <c r="EG9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EH9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EI9" t="n">
         <v>0</v>
@@ -5422,10 +5422,10 @@
         <v>0</v>
       </c>
       <c r="EP9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EQ9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="ER9" t="n">
         <v>0</v>
@@ -5449,10 +5449,10 @@
         <v>0</v>
       </c>
       <c r="EY9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EZ9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FA9" t="n">
         <v>0</v>
@@ -5476,10 +5476,10 @@
         <v>0</v>
       </c>
       <c r="FH9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FI9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FJ9" t="n">
         <v>0</v>
@@ -5503,10 +5503,10 @@
         <v>0</v>
       </c>
       <c r="FQ9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FR9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FS9" t="n">
         <v>0</v>
@@ -5556,28 +5556,28 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="B10" t="n">
-        <v>-0</v>
+        <v>0.1819249695443998</v>
       </c>
       <c r="C10" t="n">
-        <v>0.1796374495072219</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>-0.0175024132080765</v>
+        <v>-0.1236732909722768</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.02774056291433095</v>
+        <v>-0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>-0.01715771429415033</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -5586,79 +5586,79 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>0.1438074904924797</v>
       </c>
       <c r="L10" t="n">
-        <v>0.1939634757190698</v>
+        <v>0</v>
       </c>
       <c r="M10" t="n">
         <v>0</v>
       </c>
       <c r="N10" t="n">
-        <v>0.02041323783365131</v>
+        <v>-0.1368090607276144</v>
       </c>
       <c r="O10" t="n">
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>0.05033524654672761</v>
+        <v>-0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>-0.08955208101586677</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>0.1293026015852562</v>
       </c>
       <c r="U10" t="n">
-        <v>-0.02020131076299512</v>
+        <v>-0</v>
       </c>
       <c r="V10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>-0.02960808836909135</v>
+        <v>0.02655591892497395</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="Y10" t="n">
-        <v>-0.05354886057816832</v>
+        <v>-0</v>
       </c>
       <c r="Z10" t="n">
-        <v>0</v>
+        <v>-0.0459169655337418</v>
       </c>
       <c r="AA10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AB10" t="n">
         <v>-0</v>
       </c>
       <c r="AC10" t="n">
-        <v>0</v>
+        <v>0.05106625154745337</v>
       </c>
       <c r="AD10" t="n">
-        <v>-0.01761739720534739</v>
+        <v>-0</v>
       </c>
       <c r="AE10" t="n">
         <v>0</v>
       </c>
       <c r="AF10" t="n">
-        <v>0.007999198715961265</v>
+        <v>-0.04233663002643779</v>
       </c>
       <c r="AG10" t="n">
         <v>0</v>
       </c>
       <c r="AH10" t="n">
-        <v>0.007930201176476278</v>
+        <v>-0</v>
       </c>
       <c r="AI10" t="n">
-        <v>-0</v>
+        <v>-0.01432198939914193</v>
       </c>
       <c r="AJ10" t="n">
         <v>-0</v>
@@ -5667,268 +5667,268 @@
         <v>0</v>
       </c>
       <c r="AL10" t="n">
-        <v>-0</v>
+        <v>0.07355747839674054</v>
       </c>
       <c r="AM10" t="n">
-        <v>0.06257180654299231</v>
+        <v>-0</v>
       </c>
       <c r="AN10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AO10" t="n">
-        <v>-0.02789299573771101</v>
+        <v>-0.05894265807356858</v>
       </c>
       <c r="AP10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AQ10" t="n">
-        <v>0.02203571256049772</v>
+        <v>0</v>
       </c>
       <c r="AR10" t="n">
-        <v>-0</v>
+        <v>-0.03109227468661841</v>
       </c>
       <c r="AS10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AT10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AU10" t="n">
-        <v>-0</v>
+        <v>0.3818194874799127</v>
       </c>
       <c r="AV10" t="n">
-        <v>0.08213195832116432</v>
+        <v>-0</v>
       </c>
       <c r="AW10" t="n">
         <v>-0</v>
       </c>
       <c r="AX10" t="n">
-        <v>0.08109995107477277</v>
+        <v>0.005857681383452188</v>
       </c>
       <c r="AY10" t="n">
         <v>0</v>
       </c>
       <c r="AZ10" t="n">
-        <v>0.03145421608490789</v>
+        <v>-0</v>
       </c>
       <c r="BA10" t="n">
-        <v>-0</v>
+        <v>0.09697951834347503</v>
       </c>
       <c r="BB10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BC10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BD10" t="n">
-        <v>0</v>
+        <v>-0.01441968337592178</v>
       </c>
       <c r="BE10" t="n">
-        <v>0.09969534288330098</v>
+        <v>0</v>
       </c>
       <c r="BF10" t="n">
         <v>0</v>
       </c>
       <c r="BG10" t="n">
-        <v>-0.07290909600749544</v>
+        <v>-0.1259123241836561</v>
       </c>
       <c r="BH10" t="n">
         <v>0</v>
       </c>
       <c r="BI10" t="n">
-        <v>0.02369024220212573</v>
+        <v>-0</v>
       </c>
       <c r="BJ10" t="n">
-        <v>0</v>
+        <v>-0.06684251110680441</v>
       </c>
       <c r="BK10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BL10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BM10" t="n">
-        <v>0</v>
+        <v>0.157317737381399</v>
       </c>
       <c r="BN10" t="n">
-        <v>-0.06234565029873686</v>
+        <v>-0</v>
       </c>
       <c r="BO10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BP10" t="n">
-        <v>-0.01062415833918725</v>
+        <v>0.1151401530469654</v>
       </c>
       <c r="BQ10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BR10" t="n">
-        <v>0.004556674483563802</v>
+        <v>-0</v>
       </c>
       <c r="BS10" t="n">
-        <v>-0</v>
+        <v>0.03981593109577158</v>
       </c>
       <c r="BT10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BU10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BV10" t="n">
-        <v>0</v>
+        <v>0.2230904411210927</v>
       </c>
       <c r="BW10" t="n">
-        <v>0.08889531147056258</v>
+        <v>0</v>
       </c>
       <c r="BX10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BY10" t="n">
-        <v>-0.03805627073985401</v>
+        <v>-0.02425229819454231</v>
       </c>
       <c r="BZ10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CA10" t="n">
-        <v>0.04475008132429514</v>
+        <v>-0</v>
       </c>
       <c r="CB10" t="n">
-        <v>-0</v>
+        <v>0.05943959064277363</v>
       </c>
       <c r="CC10" t="n">
         <v>0</v>
       </c>
       <c r="CD10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CE10" t="n">
-        <v>-0</v>
+        <v>-0.0494967304706723</v>
       </c>
       <c r="CF10" t="n">
-        <v>-0.0514394276811918</v>
+        <v>0</v>
       </c>
       <c r="CG10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CH10" t="n">
-        <v>-0.001086236112479592</v>
+        <v>0.02332221838328587</v>
       </c>
       <c r="CI10" t="n">
         <v>-0</v>
       </c>
       <c r="CJ10" t="n">
-        <v>-0.02795894188268813</v>
+        <v>0</v>
       </c>
       <c r="CK10" t="n">
-        <v>0</v>
+        <v>0.001636410140198058</v>
       </c>
       <c r="CL10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CM10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CN10" t="n">
-        <v>-0</v>
+        <v>-0.0572873830613316</v>
       </c>
       <c r="CO10" t="n">
-        <v>0.005176645066802784</v>
+        <v>-0</v>
       </c>
       <c r="CP10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CQ10" t="n">
-        <v>0.03317674794727023</v>
+        <v>-0.09700534762258919</v>
       </c>
       <c r="CR10" t="n">
         <v>-0</v>
       </c>
       <c r="CS10" t="n">
-        <v>-0.02498229674200701</v>
+        <v>0</v>
       </c>
       <c r="CT10" t="n">
-        <v>-0</v>
+        <v>-0.00745422773922443</v>
       </c>
       <c r="CU10" t="n">
         <v>0</v>
       </c>
       <c r="CV10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CW10" t="n">
-        <v>0</v>
+        <v>-0.02856013628736857</v>
       </c>
       <c r="CX10" t="n">
-        <v>-0.06159228850020295</v>
+        <v>-0</v>
       </c>
       <c r="CY10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CZ10" t="n">
-        <v>0.0245594455138635</v>
+        <v>0.008787862474600235</v>
       </c>
       <c r="DA10" t="n">
         <v>0</v>
       </c>
       <c r="DB10" t="n">
-        <v>-0.01917918631961345</v>
+        <v>0</v>
       </c>
       <c r="DC10" t="n">
-        <v>-0</v>
+        <v>-0.009769210490675848</v>
       </c>
       <c r="DD10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DE10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DF10" t="n">
-        <v>0</v>
+        <v>-0.1929985811245455</v>
       </c>
       <c r="DG10" t="n">
-        <v>-0.0001389214386641833</v>
+        <v>-0</v>
       </c>
       <c r="DH10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DI10" t="n">
-        <v>-0.03750741592585178</v>
+        <v>0.03491680683850694</v>
       </c>
       <c r="DJ10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DK10" t="n">
-        <v>0.008260170619979334</v>
+        <v>0</v>
       </c>
       <c r="DL10" t="n">
-        <v>0</v>
+        <v>-0.06071958972047854</v>
       </c>
       <c r="DM10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DN10" t="n">
         <v>-0</v>
       </c>
       <c r="DO10" t="n">
-        <v>-0</v>
+        <v>0.01380690399518678</v>
       </c>
       <c r="DP10" t="n">
-        <v>0.01098992637758881</v>
+        <v>0</v>
       </c>
       <c r="DQ10" t="n">
         <v>0</v>
       </c>
       <c r="DR10" t="n">
-        <v>-0.04652440672224215</v>
+        <v>-0.02131256248581367</v>
       </c>
       <c r="DS10" t="n">
         <v>0</v>
       </c>
       <c r="DT10" t="n">
-        <v>-0.02121444204297859</v>
+        <v>0</v>
       </c>
       <c r="DU10" t="n">
-        <v>0</v>
+        <v>0.03830080802191736</v>
       </c>
       <c r="DV10" t="n">
         <v>0</v>
@@ -5937,25 +5937,25 @@
         <v>0</v>
       </c>
       <c r="DX10" t="n">
-        <v>-0</v>
+        <v>0.05173202239329228</v>
       </c>
       <c r="DY10" t="n">
-        <v>0.05033678271326095</v>
+        <v>0</v>
       </c>
       <c r="DZ10" t="n">
         <v>-0</v>
       </c>
       <c r="EA10" t="n">
-        <v>0.002863782035958928</v>
+        <v>-0.004909705778297758</v>
       </c>
       <c r="EB10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EC10" t="n">
-        <v>0.03420054792571173</v>
+        <v>0</v>
       </c>
       <c r="ED10" t="n">
-        <v>-0</v>
+        <v>0.02692790911581827</v>
       </c>
       <c r="EE10" t="n">
         <v>-0</v>
@@ -5964,160 +5964,160 @@
         <v>0</v>
       </c>
       <c r="EG10" t="n">
-        <v>0</v>
+        <v>0.003166032853117174</v>
       </c>
       <c r="EH10" t="n">
-        <v>-0.08927153241560952</v>
+        <v>0</v>
       </c>
       <c r="EI10" t="n">
         <v>-0</v>
       </c>
       <c r="EJ10" t="n">
-        <v>-0.007157053009018369</v>
+        <v>0.05328371366092356</v>
       </c>
       <c r="EK10" t="n">
         <v>-0</v>
       </c>
       <c r="EL10" t="n">
-        <v>-0.01089725708331377</v>
+        <v>-0</v>
       </c>
       <c r="EM10" t="n">
-        <v>0</v>
+        <v>0.008900768520514923</v>
       </c>
       <c r="EN10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EO10" t="n">
         <v>0</v>
       </c>
       <c r="EP10" t="n">
-        <v>-0</v>
+        <v>-0.0329242504851982</v>
       </c>
       <c r="EQ10" t="n">
-        <v>-0.007128497009653597</v>
+        <v>0</v>
       </c>
       <c r="ER10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="ES10" t="n">
-        <v>0.07166960769509691</v>
+        <v>0.001746343506336179</v>
       </c>
       <c r="ET10" t="n">
         <v>-0</v>
       </c>
       <c r="EU10" t="n">
-        <v>-0.01285485320555162</v>
+        <v>-0</v>
       </c>
       <c r="EV10" t="n">
-        <v>0</v>
+        <v>0.00463320504920417</v>
       </c>
       <c r="EW10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EX10" t="n">
         <v>-0</v>
       </c>
       <c r="EY10" t="n">
-        <v>0</v>
+        <v>-0.03430092639998676</v>
       </c>
       <c r="EZ10" t="n">
-        <v>-0.05887984638283555</v>
+        <v>-0</v>
       </c>
       <c r="FA10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FB10" t="n">
-        <v>0.009726045342387406</v>
+        <v>0.005697296617986074</v>
       </c>
       <c r="FC10" t="n">
         <v>-0</v>
       </c>
       <c r="FD10" t="n">
-        <v>-0.02116734993264214</v>
+        <v>-0</v>
       </c>
       <c r="FE10" t="n">
-        <v>0</v>
+        <v>0.004396661817360158</v>
       </c>
       <c r="FF10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FG10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FH10" t="n">
-        <v>0</v>
+        <v>-0.003149871498446935</v>
       </c>
       <c r="FI10" t="n">
-        <v>-0.02083949686266639</v>
+        <v>-0</v>
       </c>
       <c r="FJ10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FK10" t="n">
-        <v>0.01793341132169916</v>
+        <v>-0.03272695008061028</v>
       </c>
       <c r="FL10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FM10" t="n">
-        <v>0.01060264789264287</v>
+        <v>-0</v>
       </c>
       <c r="FN10" t="n">
-        <v>0</v>
+        <v>-0.0240846452678207</v>
       </c>
       <c r="FO10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FP10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FQ10" t="n">
-        <v>-0</v>
+        <v>-0.00108068990127986</v>
       </c>
       <c r="FR10" t="n">
-        <v>-0.006683643319220403</v>
+        <v>-0</v>
       </c>
       <c r="FS10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FT10" t="n">
-        <v>-0.001046184633694847</v>
+        <v>0.002771654628233284</v>
       </c>
       <c r="FU10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FV10" t="n">
-        <v>0.01815404547587786</v>
+        <v>-0</v>
       </c>
       <c r="FW10" t="n">
-        <v>0</v>
+        <v>-0.05505259410226756</v>
       </c>
       <c r="FX10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FY10" t="n">
         <v>-0</v>
       </c>
       <c r="FZ10" t="n">
-        <v>0</v>
+        <v>-0.08616681316232211</v>
       </c>
       <c r="GA10" t="n">
-        <v>0.00983473433390137</v>
+        <v>0</v>
       </c>
       <c r="GB10" t="n">
         <v>-0</v>
       </c>
       <c r="GC10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="GD10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="GE10" t="n">
-        <v>0.0162086324137713</v>
+        <v>-0</v>
       </c>
       <c r="GF10" t="n">
-        <v>0</v>
+        <v>-0.0679923754594853</v>
       </c>
       <c r="GG10" t="n">
         <v>0</v>
@@ -6125,19 +6125,19 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>0</v>
+        <v>-0.1791919348224608</v>
       </c>
       <c r="B11" t="n">
-        <v>-0.2280809073264656</v>
+        <v>0.5639306159272277</v>
       </c>
       <c r="C11" t="n">
-        <v>0.3564994141886022</v>
+        <v>-0</v>
       </c>
       <c r="D11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>-0.100008147938157</v>
+        <v>-0.1569250848848328</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -6152,52 +6152,52 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>-0.1561438142739711</v>
       </c>
       <c r="K11" t="n">
-        <v>-0.1668769784960334</v>
+        <v>0.4562202169458763</v>
       </c>
       <c r="L11" t="n">
-        <v>0.397638898793484</v>
+        <v>-0</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>-0.02538304773206528</v>
+        <v>-0.2666690829447152</v>
       </c>
       <c r="O11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="Q11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>0.02468212405635917</v>
       </c>
       <c r="T11" t="n">
-        <v>-0.1507534460211998</v>
+        <v>0.2636790850092571</v>
       </c>
       <c r="U11" t="n">
-        <v>0.1673576100948033</v>
+        <v>-0</v>
       </c>
       <c r="V11" t="n">
         <v>-0</v>
       </c>
       <c r="W11" t="n">
-        <v>0.01959018265023455</v>
+        <v>0.05073432589376828</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="Z11" t="n">
         <v>0</v>
@@ -6206,19 +6206,19 @@
         <v>0</v>
       </c>
       <c r="AB11" t="n">
-        <v>-0</v>
+        <v>0.0046905913438237</v>
       </c>
       <c r="AC11" t="n">
-        <v>-0.02683975685446497</v>
+        <v>0.06192614682503022</v>
       </c>
       <c r="AD11" t="n">
-        <v>-0.06780016051767439</v>
+        <v>-0</v>
       </c>
       <c r="AE11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AF11" t="n">
-        <v>-0.05458774856325121</v>
+        <v>-0.03452846563732</v>
       </c>
       <c r="AG11" t="n">
         <v>0</v>
@@ -6233,19 +6233,19 @@
         <v>-0</v>
       </c>
       <c r="AK11" t="n">
-        <v>0</v>
+        <v>-0.07714913431952598</v>
       </c>
       <c r="AL11" t="n">
-        <v>-0.09594053197668602</v>
+        <v>0.2257422126304688</v>
       </c>
       <c r="AM11" t="n">
-        <v>0.07003583558061292</v>
+        <v>0</v>
       </c>
       <c r="AN11" t="n">
         <v>0</v>
       </c>
       <c r="AO11" t="n">
-        <v>-0.02204055155494686</v>
+        <v>0.07173871562920486</v>
       </c>
       <c r="AP11" t="n">
         <v>0</v>
@@ -6254,52 +6254,52 @@
         <v>0</v>
       </c>
       <c r="AR11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AS11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AT11" t="n">
-        <v>0</v>
+        <v>0.09478822686065329</v>
       </c>
       <c r="AU11" t="n">
-        <v>-0.2132609373663882</v>
+        <v>0.6044136041103734</v>
       </c>
       <c r="AV11" t="n">
-        <v>0.1142721590091383</v>
+        <v>-0</v>
       </c>
       <c r="AW11" t="n">
         <v>-0</v>
       </c>
       <c r="AX11" t="n">
-        <v>0.06352295683812886</v>
+        <v>0.1639171342912727</v>
       </c>
       <c r="AY11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AZ11" t="n">
         <v>0</v>
       </c>
       <c r="BA11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BB11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BC11" t="n">
-        <v>-0</v>
+        <v>-0.1070778673736435</v>
       </c>
       <c r="BD11" t="n">
-        <v>-0.09490714482602786</v>
+        <v>0.03440261434493155</v>
       </c>
       <c r="BE11" t="n">
-        <v>0.1922477713385102</v>
+        <v>0</v>
       </c>
       <c r="BF11" t="n">
         <v>0</v>
       </c>
       <c r="BG11" t="n">
-        <v>-0.1865183876948562</v>
+        <v>-0.3083215869627891</v>
       </c>
       <c r="BH11" t="n">
         <v>0</v>
@@ -6308,28 +6308,28 @@
         <v>-0</v>
       </c>
       <c r="BJ11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BK11" t="n">
         <v>0</v>
       </c>
       <c r="BL11" t="n">
-        <v>-0</v>
+        <v>-0.03221055847867669</v>
       </c>
       <c r="BM11" t="n">
-        <v>0.02991283518443196</v>
+        <v>-0.004339874276946113</v>
       </c>
       <c r="BN11" t="n">
-        <v>-0.1307426217815778</v>
+        <v>-0</v>
       </c>
       <c r="BO11" t="n">
         <v>-0</v>
       </c>
       <c r="BP11" t="n">
-        <v>-0.09577629282413701</v>
+        <v>0.07535665308074861</v>
       </c>
       <c r="BQ11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BR11" t="n">
         <v>-0</v>
@@ -6338,28 +6338,28 @@
         <v>-0</v>
       </c>
       <c r="BT11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BU11" t="n">
-        <v>0</v>
+        <v>0.06826084222509536</v>
       </c>
       <c r="BV11" t="n">
-        <v>-0.1544148691018144</v>
+        <v>0.4287880064342371</v>
       </c>
       <c r="BW11" t="n">
-        <v>0.1899678284690088</v>
+        <v>0</v>
       </c>
       <c r="BX11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BY11" t="n">
-        <v>-0.05299289852539965</v>
+        <v>0.01986712985986684</v>
       </c>
       <c r="BZ11" t="n">
         <v>0</v>
       </c>
       <c r="CA11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CB11" t="n">
         <v>-0</v>
@@ -6368,25 +6368,25 @@
         <v>0</v>
       </c>
       <c r="CD11" t="n">
-        <v>-0</v>
+        <v>0.04728291891603534</v>
       </c>
       <c r="CE11" t="n">
-        <v>0.05506815994225923</v>
+        <v>-0.1310783522400944</v>
       </c>
       <c r="CF11" t="n">
-        <v>-0.06894717255043385</v>
+        <v>0</v>
       </c>
       <c r="CG11" t="n">
         <v>-0</v>
       </c>
       <c r="CH11" t="n">
-        <v>0.02673257532960382</v>
+        <v>0.0005417181817210708</v>
       </c>
       <c r="CI11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CJ11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CK11" t="n">
         <v>0</v>
@@ -6395,25 +6395,25 @@
         <v>-0</v>
       </c>
       <c r="CM11" t="n">
-        <v>-0</v>
+        <v>-0.1305272506628601</v>
       </c>
       <c r="CN11" t="n">
-        <v>-0.01739989816866614</v>
+        <v>-0.004571644278204876</v>
       </c>
       <c r="CO11" t="n">
-        <v>0.03728466988625458</v>
+        <v>-0</v>
       </c>
       <c r="CP11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CQ11" t="n">
-        <v>0.07152547774068345</v>
+        <v>-0.1182351449909031</v>
       </c>
       <c r="CR11" t="n">
         <v>-0</v>
       </c>
       <c r="CS11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CT11" t="n">
         <v>-0</v>
@@ -6422,25 +6422,25 @@
         <v>0</v>
       </c>
       <c r="CV11" t="n">
-        <v>0</v>
+        <v>0.03025726478000201</v>
       </c>
       <c r="CW11" t="n">
-        <v>0.04203356519950092</v>
+        <v>-0.1400299182681987</v>
       </c>
       <c r="CX11" t="n">
-        <v>-0.08240002643302743</v>
+        <v>-0</v>
       </c>
       <c r="CY11" t="n">
         <v>0</v>
       </c>
       <c r="CZ11" t="n">
-        <v>0.05506324215499203</v>
+        <v>-0.01378355496369901</v>
       </c>
       <c r="DA11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DB11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DC11" t="n">
         <v>-0</v>
@@ -6449,73 +6449,73 @@
         <v>0</v>
       </c>
       <c r="DE11" t="n">
-        <v>-0</v>
+        <v>0.06784581980570151</v>
       </c>
       <c r="DF11" t="n">
-        <v>0.1169549429663489</v>
+        <v>-0.2520139766884002</v>
       </c>
       <c r="DG11" t="n">
-        <v>0.0207156003080942</v>
+        <v>0</v>
       </c>
       <c r="DH11" t="n">
         <v>0</v>
       </c>
       <c r="DI11" t="n">
-        <v>-0.01191053227076887</v>
+        <v>0.1239456053693779</v>
       </c>
       <c r="DJ11" t="n">
         <v>0</v>
       </c>
       <c r="DK11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DL11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DM11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DN11" t="n">
-        <v>-0</v>
+        <v>-0.0733090323827689</v>
       </c>
       <c r="DO11" t="n">
-        <v>0.1186121660504102</v>
+        <v>-0.09250805637071231</v>
       </c>
       <c r="DP11" t="n">
-        <v>0.1005692326407115</v>
+        <v>-0</v>
       </c>
       <c r="DQ11" t="n">
         <v>-0</v>
       </c>
       <c r="DR11" t="n">
-        <v>-0.08192059381561151</v>
+        <v>-0.02233105825250162</v>
       </c>
       <c r="DS11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DT11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DU11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DV11" t="n">
         <v>0</v>
       </c>
       <c r="DW11" t="n">
-        <v>-0</v>
+        <v>-0.01705921154912454</v>
       </c>
       <c r="DX11" t="n">
-        <v>0.06913217047845518</v>
+        <v>0.1377384365257819</v>
       </c>
       <c r="DY11" t="n">
-        <v>0.09721737843778502</v>
+        <v>0</v>
       </c>
       <c r="DZ11" t="n">
         <v>-0</v>
       </c>
       <c r="EA11" t="n">
-        <v>-0.04554371799696117</v>
+        <v>-0.108475428887293</v>
       </c>
       <c r="EB11" t="n">
         <v>0</v>
@@ -6524,139 +6524,139 @@
         <v>0</v>
       </c>
       <c r="ED11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EE11" t="n">
         <v>-0</v>
       </c>
       <c r="EF11" t="n">
-        <v>-0</v>
+        <v>-0.02441416115951488</v>
       </c>
       <c r="EG11" t="n">
-        <v>-0.0593115163752336</v>
+        <v>0.01090899546804556</v>
       </c>
       <c r="EH11" t="n">
-        <v>-0.09540220525702815</v>
+        <v>0</v>
       </c>
       <c r="EI11" t="n">
         <v>-0</v>
       </c>
       <c r="EJ11" t="n">
-        <v>0.003077468574503332</v>
+        <v>-0.001742481280514947</v>
       </c>
       <c r="EK11" t="n">
         <v>-0</v>
       </c>
       <c r="EL11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EM11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EN11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EO11" t="n">
-        <v>0</v>
+        <v>0.01220715882993608</v>
       </c>
       <c r="EP11" t="n">
-        <v>0.1871075603686853</v>
+        <v>-0.1070567256948414</v>
       </c>
       <c r="EQ11" t="n">
-        <v>-0.07978359165180555</v>
+        <v>0</v>
       </c>
       <c r="ER11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="ES11" t="n">
-        <v>0.1310080942446682</v>
+        <v>-0.0450217876104428</v>
       </c>
       <c r="ET11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EU11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EV11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EW11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EX11" t="n">
-        <v>-0</v>
+        <v>0.02544321985770457</v>
       </c>
       <c r="EY11" t="n">
-        <v>0.04109374065012439</v>
+        <v>-0.1463674076943453</v>
       </c>
       <c r="EZ11" t="n">
-        <v>-0.07756632334561495</v>
+        <v>0</v>
       </c>
       <c r="FA11" t="n">
         <v>-0</v>
       </c>
       <c r="FB11" t="n">
-        <v>0.03613970050602033</v>
+        <v>-0.05222289013059514</v>
       </c>
       <c r="FC11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FD11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FE11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FF11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FG11" t="n">
-        <v>-0</v>
+        <v>0.05210003148994166</v>
       </c>
       <c r="FH11" t="n">
-        <v>0.02844305168449122</v>
+        <v>-0.05920602867081445</v>
       </c>
       <c r="FI11" t="n">
-        <v>-0.1028989139109997</v>
+        <v>-0</v>
       </c>
       <c r="FJ11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FK11" t="n">
-        <v>0.02137715805137307</v>
+        <v>-0.09423036057038529</v>
       </c>
       <c r="FL11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FM11" t="n">
         <v>0</v>
       </c>
       <c r="FN11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FO11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FP11" t="n">
-        <v>-0</v>
+        <v>-0.01418227947051117</v>
       </c>
       <c r="FQ11" t="n">
-        <v>0.1654047586762729</v>
+        <v>-0.03782360245113797</v>
       </c>
       <c r="FR11" t="n">
-        <v>-0.003849035899087163</v>
+        <v>-0</v>
       </c>
       <c r="FS11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FT11" t="n">
-        <v>0.01606995762343304</v>
+        <v>-0.007698338626467181</v>
       </c>
       <c r="FU11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FV11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FW11" t="n">
         <v>0</v>
@@ -6665,19 +6665,19 @@
         <v>-0</v>
       </c>
       <c r="FY11" t="n">
-        <v>0</v>
+        <v>-0.113090835870834</v>
       </c>
       <c r="FZ11" t="n">
-        <v>-0.03325101628365447</v>
+        <v>-0.02181073007780042</v>
       </c>
       <c r="GA11" t="n">
-        <v>0.1404341019460946</v>
+        <v>-0</v>
       </c>
       <c r="GB11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="GC11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="GD11" t="n">
         <v>-0</v>
@@ -6689,33 +6689,33 @@
         <v>-0</v>
       </c>
       <c r="GG11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>0.3141962187878294</v>
       </c>
       <c r="C12" t="n">
-        <v>0.1955459984801918</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>-0.07547424199751396</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>-0.0371663267764575</v>
+        <v>-0.07965497230429107</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G12" t="n">
-        <v>-0</v>
+        <v>-0.2520574303727279</v>
       </c>
       <c r="H12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -6724,160 +6724,160 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>-0</v>
+        <v>0.2029192847236026</v>
       </c>
       <c r="L12" t="n">
-        <v>0.207390433924932</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>-0.05713778610129741</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>0.05065824638976951</v>
+        <v>-0.1274704508985705</v>
       </c>
       <c r="O12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>-0.2246428084239588</v>
       </c>
       <c r="Q12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="T12" t="n">
-        <v>0</v>
+        <v>0.1390305706167526</v>
       </c>
       <c r="U12" t="n">
-        <v>0.04793807871015524</v>
+        <v>0</v>
       </c>
       <c r="V12" t="n">
-        <v>0.07553239517940291</v>
+        <v>-0</v>
       </c>
       <c r="W12" t="n">
-        <v>0.07653122862839842</v>
+        <v>0.1920124868043915</v>
       </c>
       <c r="X12" t="n">
         <v>0</v>
       </c>
       <c r="Y12" t="n">
-        <v>-0</v>
+        <v>-0.07398348455169612</v>
       </c>
       <c r="Z12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AA12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AB12" t="n">
         <v>-0</v>
       </c>
       <c r="AC12" t="n">
-        <v>0</v>
+        <v>0.07746991571396653</v>
       </c>
       <c r="AD12" t="n">
-        <v>-0.01100912699187259</v>
+        <v>-0</v>
       </c>
       <c r="AE12" t="n">
-        <v>-0.004446427627623026</v>
+        <v>-0</v>
       </c>
       <c r="AF12" t="n">
-        <v>-0.008271292065086694</v>
+        <v>0.02414407405784648</v>
       </c>
       <c r="AG12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AH12" t="n">
-        <v>-0</v>
+        <v>-0.004577041267343496</v>
       </c>
       <c r="AI12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AJ12" t="n">
         <v>-0</v>
       </c>
       <c r="AK12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AL12" t="n">
-        <v>0</v>
+        <v>0.04085117864429864</v>
       </c>
       <c r="AM12" t="n">
-        <v>0.04553398951458454</v>
+        <v>-0</v>
       </c>
       <c r="AN12" t="n">
-        <v>-0.01056028868524132</v>
+        <v>-0</v>
       </c>
       <c r="AO12" t="n">
-        <v>-0.02738987136874965</v>
+        <v>0.03209072455359955</v>
       </c>
       <c r="AP12" t="n">
         <v>0</v>
       </c>
       <c r="AQ12" t="n">
-        <v>-0</v>
+        <v>-0.08668679827402018</v>
       </c>
       <c r="AR12" t="n">
         <v>0</v>
       </c>
       <c r="AS12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AT12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AU12" t="n">
-        <v>-0</v>
+        <v>0.466916837700897</v>
       </c>
       <c r="AV12" t="n">
-        <v>0.1135502892225655</v>
+        <v>-0</v>
       </c>
       <c r="AW12" t="n">
-        <v>-0.009003650502725304</v>
+        <v>-0</v>
       </c>
       <c r="AX12" t="n">
-        <v>0.07532908877097871</v>
+        <v>0.08796955936699147</v>
       </c>
       <c r="AY12" t="n">
         <v>0</v>
       </c>
       <c r="AZ12" t="n">
-        <v>0</v>
+        <v>-0.1342366813317483</v>
       </c>
       <c r="BA12" t="n">
         <v>-0</v>
       </c>
       <c r="BB12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BC12" t="n">
         <v>-0</v>
       </c>
       <c r="BD12" t="n">
-        <v>0</v>
+        <v>0.07784245899221844</v>
       </c>
       <c r="BE12" t="n">
-        <v>0.0733984306719818</v>
+        <v>0</v>
       </c>
       <c r="BF12" t="n">
-        <v>-0.06154833827599587</v>
+        <v>0</v>
       </c>
       <c r="BG12" t="n">
-        <v>-0.08839696370645996</v>
+        <v>-0.09965468088573445</v>
       </c>
       <c r="BH12" t="n">
         <v>0</v>
       </c>
       <c r="BI12" t="n">
-        <v>0</v>
+        <v>-0.1595252828882028</v>
       </c>
       <c r="BJ12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BK12" t="n">
         <v>0</v>
@@ -6886,49 +6886,49 @@
         <v>-0</v>
       </c>
       <c r="BM12" t="n">
-        <v>0</v>
+        <v>0.07246932528683199</v>
       </c>
       <c r="BN12" t="n">
-        <v>-0.07491909627407888</v>
+        <v>-0</v>
       </c>
       <c r="BO12" t="n">
-        <v>-0.02588808046283495</v>
+        <v>-0</v>
       </c>
       <c r="BP12" t="n">
-        <v>-0.0745620670795346</v>
+        <v>0.1894592880494755</v>
       </c>
       <c r="BQ12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BR12" t="n">
-        <v>-0</v>
+        <v>0.05826515204510624</v>
       </c>
       <c r="BS12" t="n">
         <v>-0</v>
       </c>
       <c r="BT12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BU12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BV12" t="n">
-        <v>0</v>
+        <v>0.1983862996125943</v>
       </c>
       <c r="BW12" t="n">
-        <v>0.0701975409097587</v>
+        <v>0</v>
       </c>
       <c r="BX12" t="n">
-        <v>0.004812459012867555</v>
+        <v>-0</v>
       </c>
       <c r="BY12" t="n">
-        <v>-0.00172521754962288</v>
+        <v>0.0289968579173603</v>
       </c>
       <c r="BZ12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CA12" t="n">
-        <v>0</v>
+        <v>-0.07148621133650572</v>
       </c>
       <c r="CB12" t="n">
         <v>-0</v>
@@ -6937,82 +6937,82 @@
         <v>-0</v>
       </c>
       <c r="CD12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CE12" t="n">
-        <v>-0</v>
+        <v>-0.09970851100070367</v>
       </c>
       <c r="CF12" t="n">
-        <v>-0.04309453777678444</v>
+        <v>-0</v>
       </c>
       <c r="CG12" t="n">
-        <v>0.02801876693372926</v>
+        <v>-0</v>
       </c>
       <c r="CH12" t="n">
-        <v>-0.01583830812571798</v>
+        <v>0.02102410920510392</v>
       </c>
       <c r="CI12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CJ12" t="n">
-        <v>-0</v>
+        <v>0.06256144198409963</v>
       </c>
       <c r="CK12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CL12" t="n">
         <v>-0</v>
       </c>
       <c r="CM12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CN12" t="n">
-        <v>0</v>
+        <v>-0.1206839598311869</v>
       </c>
       <c r="CO12" t="n">
-        <v>0.03068891510755169</v>
+        <v>-0</v>
       </c>
       <c r="CP12" t="n">
-        <v>0.005983230451733127</v>
+        <v>-0</v>
       </c>
       <c r="CQ12" t="n">
-        <v>-0.001280454953418289</v>
+        <v>-0.05018782407644743</v>
       </c>
       <c r="CR12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CS12" t="n">
-        <v>-0</v>
+        <v>-0.02569067621355014</v>
       </c>
       <c r="CT12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CU12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CV12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CW12" t="n">
-        <v>-0</v>
+        <v>-0.07844234247562724</v>
       </c>
       <c r="CX12" t="n">
-        <v>-0.04147312307657328</v>
+        <v>-0</v>
       </c>
       <c r="CY12" t="n">
-        <v>0.02504616012228246</v>
+        <v>0</v>
       </c>
       <c r="CZ12" t="n">
-        <v>0.002667208938159626</v>
+        <v>0.02648955331951159</v>
       </c>
       <c r="DA12" t="n">
         <v>-0</v>
       </c>
       <c r="DB12" t="n">
-        <v>-0</v>
+        <v>0.06314365264422182</v>
       </c>
       <c r="DC12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DD12" t="n">
         <v>0</v>
@@ -7021,103 +7021,103 @@
         <v>-0</v>
       </c>
       <c r="DF12" t="n">
-        <v>-0</v>
+        <v>-0.3009308382715615</v>
       </c>
       <c r="DG12" t="n">
-        <v>-0.01430763993063395</v>
+        <v>-0</v>
       </c>
       <c r="DH12" t="n">
-        <v>-0.03062339609736841</v>
+        <v>-0</v>
       </c>
       <c r="DI12" t="n">
-        <v>0.05266230946330051</v>
+        <v>0.04763117500854867</v>
       </c>
       <c r="DJ12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DK12" t="n">
-        <v>0</v>
+        <v>-0.03434545992759726</v>
       </c>
       <c r="DL12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DM12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DN12" t="n">
         <v>-0</v>
       </c>
       <c r="DO12" t="n">
-        <v>-0</v>
+        <v>-0.03509949557107733</v>
       </c>
       <c r="DP12" t="n">
-        <v>0.04935052304140673</v>
+        <v>0</v>
       </c>
       <c r="DQ12" t="n">
-        <v>0.006882748480992102</v>
+        <v>-0</v>
       </c>
       <c r="DR12" t="n">
-        <v>-0.08449348065369143</v>
+        <v>0.02567262786137329</v>
       </c>
       <c r="DS12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DT12" t="n">
-        <v>-0</v>
+        <v>-0.006511314379098037</v>
       </c>
       <c r="DU12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DV12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DW12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DX12" t="n">
-        <v>-0</v>
+        <v>0.09745524173904928</v>
       </c>
       <c r="DY12" t="n">
-        <v>0.05655607089256802</v>
+        <v>-0</v>
       </c>
       <c r="DZ12" t="n">
-        <v>0.02192892796703925</v>
+        <v>-0</v>
       </c>
       <c r="EA12" t="n">
-        <v>-0.001223456540924764</v>
+        <v>-0.05949998106997276</v>
       </c>
       <c r="EB12" t="n">
         <v>0</v>
       </c>
       <c r="EC12" t="n">
-        <v>0</v>
+        <v>0.01120081521102696</v>
       </c>
       <c r="ED12" t="n">
         <v>0</v>
       </c>
       <c r="EE12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EF12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EG12" t="n">
-        <v>0</v>
+        <v>-0.02011899954806808</v>
       </c>
       <c r="EH12" t="n">
-        <v>-0.056444901902614</v>
+        <v>-0</v>
       </c>
       <c r="EI12" t="n">
-        <v>0.05173461578303577</v>
+        <v>-0</v>
       </c>
       <c r="EJ12" t="n">
-        <v>0.03978006840293623</v>
+        <v>0.05910464627298774</v>
       </c>
       <c r="EK12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EL12" t="n">
-        <v>-0</v>
+        <v>0.05286623130024803</v>
       </c>
       <c r="EM12" t="n">
         <v>-0</v>
@@ -7126,55 +7126,55 @@
         <v>-0</v>
       </c>
       <c r="EO12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EP12" t="n">
-        <v>-0</v>
+        <v>-0.05081734296801985</v>
       </c>
       <c r="EQ12" t="n">
-        <v>-0.01363802337468592</v>
+        <v>0</v>
       </c>
       <c r="ER12" t="n">
-        <v>-0.009069010805053377</v>
+        <v>-0</v>
       </c>
       <c r="ES12" t="n">
-        <v>0.026649184948021</v>
+        <v>0.03383228058868606</v>
       </c>
       <c r="ET12" t="n">
         <v>0</v>
       </c>
       <c r="EU12" t="n">
-        <v>0</v>
+        <v>0.005451265370635421</v>
       </c>
       <c r="EV12" t="n">
         <v>-0</v>
       </c>
       <c r="EW12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EX12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EY12" t="n">
-        <v>0</v>
+        <v>-0.08865955909886018</v>
       </c>
       <c r="EZ12" t="n">
-        <v>-0.03795417314345809</v>
+        <v>-0</v>
       </c>
       <c r="FA12" t="n">
-        <v>0.02680832938389906</v>
+        <v>-0</v>
       </c>
       <c r="FB12" t="n">
-        <v>-0.003992246861660265</v>
+        <v>0.0240705472505908</v>
       </c>
       <c r="FC12" t="n">
         <v>-0</v>
       </c>
       <c r="FD12" t="n">
-        <v>-0</v>
+        <v>0.05616340269385676</v>
       </c>
       <c r="FE12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FF12" t="n">
         <v>-0</v>
@@ -7183,76 +7183,76 @@
         <v>-0</v>
       </c>
       <c r="FH12" t="n">
-        <v>0</v>
+        <v>-0.03653141542470963</v>
       </c>
       <c r="FI12" t="n">
-        <v>-0.04044522266013664</v>
+        <v>-0</v>
       </c>
       <c r="FJ12" t="n">
-        <v>-0.00687197736330119</v>
+        <v>0</v>
       </c>
       <c r="FK12" t="n">
-        <v>0.006895601608645286</v>
+        <v>-0.09958907644181338</v>
       </c>
       <c r="FL12" t="n">
         <v>-0</v>
       </c>
       <c r="FM12" t="n">
-        <v>-0</v>
+        <v>0.05455782872947018</v>
       </c>
       <c r="FN12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FO12" t="n">
         <v>-0</v>
       </c>
       <c r="FP12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FQ12" t="n">
-        <v>-0</v>
+        <v>-0.006113286606359535</v>
       </c>
       <c r="FR12" t="n">
-        <v>-0.001015405848894125</v>
+        <v>-0</v>
       </c>
       <c r="FS12" t="n">
-        <v>-0.03359034386518801</v>
+        <v>-0</v>
       </c>
       <c r="FT12" t="n">
-        <v>0.002586115545330678</v>
+        <v>0.01491585518422214</v>
       </c>
       <c r="FU12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FV12" t="n">
-        <v>-0</v>
+        <v>0.0211869294295657</v>
       </c>
       <c r="FW12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FX12" t="n">
         <v>-0</v>
       </c>
       <c r="FY12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FZ12" t="n">
-        <v>-0</v>
+        <v>-0.1073687230834899</v>
       </c>
       <c r="GA12" t="n">
-        <v>0.05198114277726421</v>
+        <v>0</v>
       </c>
       <c r="GB12" t="n">
-        <v>0.02266489523648534</v>
+        <v>-0</v>
       </c>
       <c r="GC12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="GD12" t="n">
         <v>-0</v>
       </c>
       <c r="GE12" t="n">
-        <v>0</v>
+        <v>0.05363638811273655</v>
       </c>
       <c r="GF12" t="n">
         <v>-0</v>
@@ -7263,19 +7263,19 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="B13" t="n">
-        <v>-0</v>
+        <v>0.6611070049647433</v>
       </c>
       <c r="C13" t="n">
-        <v>0.3068329511841206</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>-0.008296008907765188</v>
+        <v>-0.221708115772521</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -7284,25 +7284,25 @@
         <v>-0</v>
       </c>
       <c r="H13" t="n">
-        <v>-0.1596972638905144</v>
+        <v>-0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>-0.2875214056495199</v>
       </c>
       <c r="J13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>0.4991847486623592</v>
       </c>
       <c r="L13" t="n">
-        <v>0.2843720824145435</v>
+        <v>0</v>
       </c>
       <c r="M13" t="n">
         <v>0</v>
       </c>
       <c r="N13" t="n">
-        <v>0.02690502782467906</v>
+        <v>-0.2338720022007768</v>
       </c>
       <c r="O13" t="n">
         <v>0</v>
@@ -7311,52 +7311,52 @@
         <v>-0</v>
       </c>
       <c r="Q13" t="n">
-        <v>-0.1749492527040903</v>
+        <v>-0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>-0.2780759479942315</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>0.2293431218561694</v>
       </c>
       <c r="U13" t="n">
-        <v>-0.01834994529030934</v>
+        <v>-0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>-0.0394955262571823</v>
+        <v>0.01406932831640743</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
       </c>
       <c r="Z13" t="n">
-        <v>-0.08937822928344265</v>
+        <v>-0</v>
       </c>
       <c r="AA13" t="n">
-        <v>-0</v>
+        <v>-0.04411210728502353</v>
       </c>
       <c r="AB13" t="n">
         <v>-0</v>
       </c>
       <c r="AC13" t="n">
-        <v>0</v>
+        <v>0.09049171441047234</v>
       </c>
       <c r="AD13" t="n">
-        <v>-0.0039928760627536</v>
+        <v>-0</v>
       </c>
       <c r="AE13" t="n">
         <v>-0</v>
       </c>
       <c r="AF13" t="n">
-        <v>0.008440316055885785</v>
+        <v>-0.0200433384301381</v>
       </c>
       <c r="AG13" t="n">
         <v>0</v>
@@ -7365,25 +7365,25 @@
         <v>-0</v>
       </c>
       <c r="AI13" t="n">
-        <v>0.005642901448268393</v>
+        <v>0</v>
       </c>
       <c r="AJ13" t="n">
-        <v>-0</v>
+        <v>-0.01284152924263971</v>
       </c>
       <c r="AK13" t="n">
         <v>0</v>
       </c>
       <c r="AL13" t="n">
-        <v>-0</v>
+        <v>0.1309826418733031</v>
       </c>
       <c r="AM13" t="n">
-        <v>0.08692647360206372</v>
+        <v>-0</v>
       </c>
       <c r="AN13" t="n">
         <v>0</v>
       </c>
       <c r="AO13" t="n">
-        <v>0.09171717173606343</v>
+        <v>-0.01246450937336107</v>
       </c>
       <c r="AP13" t="n">
         <v>0</v>
@@ -7392,25 +7392,25 @@
         <v>0</v>
       </c>
       <c r="AR13" t="n">
-        <v>-0.03058434742647501</v>
+        <v>-0</v>
       </c>
       <c r="AS13" t="n">
-        <v>0</v>
+        <v>-0.02076091529902857</v>
       </c>
       <c r="AT13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AU13" t="n">
-        <v>-0</v>
+        <v>0.6658466140207575</v>
       </c>
       <c r="AV13" t="n">
-        <v>0.1619112354344264</v>
+        <v>-0</v>
       </c>
       <c r="AW13" t="n">
         <v>-0</v>
       </c>
       <c r="AX13" t="n">
-        <v>0.03083602189526543</v>
+        <v>0.0365461582636193</v>
       </c>
       <c r="AY13" t="n">
         <v>0</v>
@@ -7419,25 +7419,25 @@
         <v>0</v>
       </c>
       <c r="BA13" t="n">
-        <v>-0.1463779590934626</v>
+        <v>-0</v>
       </c>
       <c r="BB13" t="n">
-        <v>0</v>
+        <v>-0.20497059061077</v>
       </c>
       <c r="BC13" t="n">
         <v>-0</v>
       </c>
       <c r="BD13" t="n">
-        <v>0</v>
+        <v>0.137733942557748</v>
       </c>
       <c r="BE13" t="n">
-        <v>0.139507147844129</v>
+        <v>0</v>
       </c>
       <c r="BF13" t="n">
         <v>0</v>
       </c>
       <c r="BG13" t="n">
-        <v>-0.05615582851125814</v>
+        <v>-0.2737994952142661</v>
       </c>
       <c r="BH13" t="n">
         <v>0</v>
@@ -7446,388 +7446,388 @@
         <v>-0</v>
       </c>
       <c r="BJ13" t="n">
-        <v>-0.09376355365687811</v>
+        <v>0</v>
       </c>
       <c r="BK13" t="n">
-        <v>0</v>
+        <v>-0.1700186501196783</v>
       </c>
       <c r="BL13" t="n">
         <v>-0</v>
       </c>
       <c r="BM13" t="n">
-        <v>0</v>
+        <v>-0.003398279316126802</v>
       </c>
       <c r="BN13" t="n">
-        <v>-0.08140728421946072</v>
+        <v>-0</v>
       </c>
       <c r="BO13" t="n">
         <v>0</v>
       </c>
       <c r="BP13" t="n">
-        <v>-0.07106112392780008</v>
+        <v>0.2265337423467342</v>
       </c>
       <c r="BQ13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BR13" t="n">
         <v>-0</v>
       </c>
       <c r="BS13" t="n">
-        <v>0.08269082859738661</v>
+        <v>-0</v>
       </c>
       <c r="BT13" t="n">
-        <v>-0</v>
+        <v>-0.01539210454081764</v>
       </c>
       <c r="BU13" t="n">
         <v>0</v>
       </c>
       <c r="BV13" t="n">
-        <v>0</v>
+        <v>0.424386194220776</v>
       </c>
       <c r="BW13" t="n">
-        <v>0.1186701500036801</v>
+        <v>0</v>
       </c>
       <c r="BX13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BY13" t="n">
-        <v>-0.02450057691241577</v>
+        <v>0.05589786016732926</v>
       </c>
       <c r="BZ13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CA13" t="n">
         <v>0</v>
       </c>
       <c r="CB13" t="n">
-        <v>-0.05968290283140906</v>
+        <v>-0</v>
       </c>
       <c r="CC13" t="n">
-        <v>0</v>
+        <v>-0.07339282788126911</v>
       </c>
       <c r="CD13" t="n">
         <v>0</v>
       </c>
       <c r="CE13" t="n">
-        <v>-0</v>
+        <v>-0.1711671489911168</v>
       </c>
       <c r="CF13" t="n">
-        <v>-0.08155928884427069</v>
+        <v>-0</v>
       </c>
       <c r="CG13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CH13" t="n">
-        <v>-0.005115955321502082</v>
+        <v>0.007442893568902368</v>
       </c>
       <c r="CI13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CJ13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CK13" t="n">
-        <v>0.04180194156418726</v>
+        <v>-0</v>
       </c>
       <c r="CL13" t="n">
-        <v>-0</v>
+        <v>0.111634190885885</v>
       </c>
       <c r="CM13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CN13" t="n">
-        <v>-0</v>
+        <v>-0.102347380409753</v>
       </c>
       <c r="CO13" t="n">
-        <v>0.007258600261738013</v>
+        <v>0</v>
       </c>
       <c r="CP13" t="n">
         <v>-0</v>
       </c>
       <c r="CQ13" t="n">
-        <v>0.05428337557734202</v>
+        <v>-0.1171929494889142</v>
       </c>
       <c r="CR13" t="n">
         <v>0</v>
       </c>
       <c r="CS13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CT13" t="n">
-        <v>0.03204569847028531</v>
+        <v>-0</v>
       </c>
       <c r="CU13" t="n">
-        <v>0</v>
+        <v>0.03562078239710942</v>
       </c>
       <c r="CV13" t="n">
         <v>-0</v>
       </c>
       <c r="CW13" t="n">
-        <v>0</v>
+        <v>-0.1435897549165399</v>
       </c>
       <c r="CX13" t="n">
-        <v>-0.07995272008284922</v>
+        <v>-0</v>
       </c>
       <c r="CY13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CZ13" t="n">
-        <v>0.03002613273402828</v>
+        <v>0.01217594077982391</v>
       </c>
       <c r="DA13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DB13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DC13" t="n">
-        <v>0.033654710974391</v>
+        <v>0</v>
       </c>
       <c r="DD13" t="n">
-        <v>0</v>
+        <v>0.09528744497502825</v>
       </c>
       <c r="DE13" t="n">
         <v>0</v>
       </c>
       <c r="DF13" t="n">
-        <v>0</v>
+        <v>-0.3120649377944213</v>
       </c>
       <c r="DG13" t="n">
-        <v>-0.01834357254002194</v>
+        <v>-0</v>
       </c>
       <c r="DH13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DI13" t="n">
-        <v>0.01373382091755964</v>
+        <v>0.07768592272902651</v>
       </c>
       <c r="DJ13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DK13" t="n">
         <v>0</v>
       </c>
       <c r="DL13" t="n">
-        <v>0.04592889060520679</v>
+        <v>-0</v>
       </c>
       <c r="DM13" t="n">
-        <v>0</v>
+        <v>0.04279746168229106</v>
       </c>
       <c r="DN13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DO13" t="n">
-        <v>-0</v>
+        <v>-0.06108808038065231</v>
       </c>
       <c r="DP13" t="n">
-        <v>-0.007029115324744484</v>
+        <v>0</v>
       </c>
       <c r="DQ13" t="n">
         <v>-0</v>
       </c>
       <c r="DR13" t="n">
-        <v>0.02329030567506878</v>
+        <v>-0.0314644624894547</v>
       </c>
       <c r="DS13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DT13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DU13" t="n">
-        <v>-0.03861473314822075</v>
+        <v>0</v>
       </c>
       <c r="DV13" t="n">
-        <v>0</v>
+        <v>-0.02536125210831234</v>
       </c>
       <c r="DW13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DX13" t="n">
-        <v>0</v>
+        <v>0.1498024623319651</v>
       </c>
       <c r="DY13" t="n">
-        <v>0.05655537010350713</v>
+        <v>-0</v>
       </c>
       <c r="DZ13" t="n">
         <v>-0</v>
       </c>
       <c r="EA13" t="n">
-        <v>-0.00410400665287423</v>
+        <v>-0.07154350706011629</v>
       </c>
       <c r="EB13" t="n">
         <v>-0</v>
       </c>
       <c r="EC13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="ED13" t="n">
-        <v>0.06844399621873481</v>
+        <v>-0</v>
       </c>
       <c r="EE13" t="n">
-        <v>-0</v>
+        <v>0.0207493289882943</v>
       </c>
       <c r="EF13" t="n">
         <v>0</v>
       </c>
       <c r="EG13" t="n">
-        <v>0</v>
+        <v>-0.03700984611373843</v>
       </c>
       <c r="EH13" t="n">
-        <v>-0.0756406532528804</v>
+        <v>0</v>
       </c>
       <c r="EI13" t="n">
         <v>0</v>
       </c>
       <c r="EJ13" t="n">
-        <v>-0.04693968986056263</v>
+        <v>0.0342036265036386</v>
       </c>
       <c r="EK13" t="n">
         <v>0</v>
       </c>
       <c r="EL13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EM13" t="n">
-        <v>0.06715565441656091</v>
+        <v>0</v>
       </c>
       <c r="EN13" t="n">
-        <v>0</v>
+        <v>0.1478980856562433</v>
       </c>
       <c r="EO13" t="n">
         <v>0</v>
       </c>
       <c r="EP13" t="n">
-        <v>-0</v>
+        <v>-0.1102814231996389</v>
       </c>
       <c r="EQ13" t="n">
-        <v>-0.009662343209855104</v>
+        <v>0</v>
       </c>
       <c r="ER13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="ES13" t="n">
-        <v>0.02051650357945574</v>
+        <v>-0.0008521424464893216</v>
       </c>
       <c r="ET13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EU13" t="n">
         <v>0</v>
       </c>
       <c r="EV13" t="n">
-        <v>0.01151877949356484</v>
+        <v>-0</v>
       </c>
       <c r="EW13" t="n">
-        <v>-0</v>
+        <v>0.05736264502081628</v>
       </c>
       <c r="EX13" t="n">
         <v>0</v>
       </c>
       <c r="EY13" t="n">
-        <v>0</v>
+        <v>-0.1747296281953986</v>
       </c>
       <c r="EZ13" t="n">
-        <v>-0.08799742727327253</v>
+        <v>-0</v>
       </c>
       <c r="FA13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FB13" t="n">
-        <v>0.01433603237436746</v>
+        <v>0.001902126309941888</v>
       </c>
       <c r="FC13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FD13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FE13" t="n">
-        <v>0.04881682943749287</v>
+        <v>-0</v>
       </c>
       <c r="FF13" t="n">
-        <v>-0</v>
+        <v>0.09083857049553946</v>
       </c>
       <c r="FG13" t="n">
         <v>0</v>
       </c>
       <c r="FH13" t="n">
-        <v>0</v>
+        <v>-0.08757933447152355</v>
       </c>
       <c r="FI13" t="n">
-        <v>-0.06731501982599412</v>
+        <v>-0</v>
       </c>
       <c r="FJ13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FK13" t="n">
-        <v>0.02594217054167477</v>
+        <v>-0.05145068386895031</v>
       </c>
       <c r="FL13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FM13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FN13" t="n">
-        <v>0.008205138584750801</v>
+        <v>-0</v>
       </c>
       <c r="FO13" t="n">
-        <v>-0</v>
+        <v>-0.06691080776893746</v>
       </c>
       <c r="FP13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FQ13" t="n">
-        <v>-0</v>
+        <v>-0.02335293562350097</v>
       </c>
       <c r="FR13" t="n">
-        <v>-0.01365314035755182</v>
+        <v>-0</v>
       </c>
       <c r="FS13" t="n">
         <v>-0</v>
       </c>
       <c r="FT13" t="n">
-        <v>-0.0005528688071314159</v>
+        <v>0.005961776654565138</v>
       </c>
       <c r="FU13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FV13" t="n">
         <v>-0</v>
       </c>
       <c r="FW13" t="n">
-        <v>-0.004197986793348546</v>
+        <v>-0</v>
       </c>
       <c r="FX13" t="n">
-        <v>-0</v>
+        <v>0.01848169202479064</v>
       </c>
       <c r="FY13" t="n">
         <v>-0</v>
       </c>
       <c r="FZ13" t="n">
-        <v>-0</v>
+        <v>-0.1551075564648476</v>
       </c>
       <c r="GA13" t="n">
-        <v>0.03351159970191686</v>
+        <v>0</v>
       </c>
       <c r="GB13" t="n">
         <v>-0</v>
       </c>
       <c r="GC13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="GD13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="GE13" t="n">
         <v>-0</v>
       </c>
       <c r="GF13" t="n">
-        <v>0.03524835762832547</v>
+        <v>0</v>
       </c>
       <c r="GG13" t="n">
-        <v>0</v>
+        <v>-0.01837381666242189</v>
       </c>
     </row>
     <row r="14">
@@ -7835,10 +7835,10 @@
         <v>0</v>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -7862,10 +7862,10 @@
         <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="L14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
@@ -7889,10 +7889,10 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="U14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -7916,10 +7916,10 @@
         <v>0</v>
       </c>
       <c r="AC14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AD14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AE14" t="n">
         <v>0</v>
@@ -7943,10 +7943,10 @@
         <v>0</v>
       </c>
       <c r="AL14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AM14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AN14" t="n">
         <v>0</v>
@@ -7970,10 +7970,10 @@
         <v>0</v>
       </c>
       <c r="AU14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AV14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AW14" t="n">
         <v>0</v>
@@ -7997,10 +7997,10 @@
         <v>0</v>
       </c>
       <c r="BD14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BE14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BF14" t="n">
         <v>0</v>
@@ -8024,10 +8024,10 @@
         <v>0</v>
       </c>
       <c r="BM14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BN14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BO14" t="n">
         <v>0</v>
@@ -8051,10 +8051,10 @@
         <v>0</v>
       </c>
       <c r="BV14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BW14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BX14" t="n">
         <v>0</v>
@@ -8078,10 +8078,10 @@
         <v>0</v>
       </c>
       <c r="CE14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CF14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CG14" t="n">
         <v>0</v>
@@ -8105,10 +8105,10 @@
         <v>0</v>
       </c>
       <c r="CN14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CO14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CP14" t="n">
         <v>0</v>
@@ -8159,10 +8159,10 @@
         <v>0</v>
       </c>
       <c r="DF14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DG14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DH14" t="n">
         <v>0</v>
@@ -8186,10 +8186,10 @@
         <v>0</v>
       </c>
       <c r="DO14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DP14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DQ14" t="n">
         <v>0</v>
@@ -8240,10 +8240,10 @@
         <v>0</v>
       </c>
       <c r="EG14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EH14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EI14" t="n">
         <v>0</v>
@@ -8267,10 +8267,10 @@
         <v>0</v>
       </c>
       <c r="EP14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EQ14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="ER14" t="n">
         <v>0</v>
@@ -8294,10 +8294,10 @@
         <v>0</v>
       </c>
       <c r="EY14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EZ14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FA14" t="n">
         <v>0</v>
@@ -8321,10 +8321,10 @@
         <v>0</v>
       </c>
       <c r="FH14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FI14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FJ14" t="n">
         <v>0</v>
@@ -8348,10 +8348,10 @@
         <v>0</v>
       </c>
       <c r="FQ14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FR14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FS14" t="n">
         <v>0</v>
@@ -8401,25 +8401,25 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="B15" t="n">
-        <v>-0</v>
+        <v>-0.6871197174934727</v>
       </c>
       <c r="C15" t="n">
-        <v>-0.3767969903608424</v>
+        <v>0.5543976346125383</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E15" t="n">
-        <v>0.0652888957595551</v>
+        <v>0.3878385524627435</v>
       </c>
       <c r="F15" t="n">
-        <v>0.5351897327629929</v>
+        <v>-0</v>
       </c>
       <c r="G15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -8428,25 +8428,25 @@
         <v>-0</v>
       </c>
       <c r="J15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>-0</v>
+        <v>-0.5122977271864013</v>
       </c>
       <c r="L15" t="n">
-        <v>-0.3770565126895794</v>
+        <v>0.3893630872254163</v>
       </c>
       <c r="M15" t="n">
         <v>-0</v>
       </c>
       <c r="N15" t="n">
-        <v>0.05030161248851331</v>
+        <v>0.478315359295838</v>
       </c>
       <c r="O15" t="n">
-        <v>0.5754771197120007</v>
+        <v>-0</v>
       </c>
       <c r="P15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -8458,100 +8458,100 @@
         <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>-0</v>
+        <v>-0.2166839902136527</v>
       </c>
       <c r="U15" t="n">
-        <v>-0.01483179527097954</v>
+        <v>0.005740263514818372</v>
       </c>
       <c r="V15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="W15" t="n">
-        <v>0.09961235842390531</v>
+        <v>0.002042858943735593</v>
       </c>
       <c r="X15" t="n">
-        <v>0.212616818606523</v>
+        <v>0</v>
       </c>
       <c r="Y15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="Z15" t="n">
         <v>-0</v>
       </c>
       <c r="AA15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AB15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AC15" t="n">
-        <v>-0</v>
+        <v>-0.1258866522558539</v>
       </c>
       <c r="AD15" t="n">
-        <v>-0.01985885822819267</v>
+        <v>0.001548571214797603</v>
       </c>
       <c r="AE15" t="n">
         <v>-0</v>
       </c>
       <c r="AF15" t="n">
-        <v>-0.1796851450210018</v>
+        <v>-0.02274473615630553</v>
       </c>
       <c r="AG15" t="n">
-        <v>-0.01233144314026637</v>
+        <v>-0</v>
       </c>
       <c r="AH15" t="n">
         <v>0</v>
       </c>
       <c r="AI15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AJ15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AK15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AL15" t="n">
-        <v>0</v>
+        <v>-0.3445018676425765</v>
       </c>
       <c r="AM15" t="n">
-        <v>-0.1669523419084518</v>
+        <v>0.02578373018405311</v>
       </c>
       <c r="AN15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AO15" t="n">
-        <v>-0.1131161502473748</v>
+        <v>-0.003001119579601787</v>
       </c>
       <c r="AP15" t="n">
-        <v>0.1249304687684208</v>
+        <v>-0</v>
       </c>
       <c r="AQ15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AR15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AS15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AT15" t="n">
         <v>0</v>
       </c>
       <c r="AU15" t="n">
-        <v>-0</v>
+        <v>-0.7201474040910649</v>
       </c>
       <c r="AV15" t="n">
-        <v>-0.2512943885414604</v>
+        <v>0.4046632370302981</v>
       </c>
       <c r="AW15" t="n">
         <v>0</v>
       </c>
       <c r="AX15" t="n">
-        <v>-0.2407330582941834</v>
+        <v>0.1267976712711924</v>
       </c>
       <c r="AY15" t="n">
-        <v>0.2101134334703153</v>
+        <v>-0</v>
       </c>
       <c r="AZ15" t="n">
         <v>-0</v>
@@ -8560,31 +8560,31 @@
         <v>-0</v>
       </c>
       <c r="BB15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BC15" t="n">
         <v>-0</v>
       </c>
       <c r="BD15" t="n">
-        <v>-0</v>
+        <v>-0.09835320827333748</v>
       </c>
       <c r="BE15" t="n">
-        <v>-0.008762606605709083</v>
+        <v>0.1372511516076264</v>
       </c>
       <c r="BF15" t="n">
         <v>-0</v>
       </c>
       <c r="BG15" t="n">
-        <v>0.2566128458269651</v>
+        <v>0.548083008600826</v>
       </c>
       <c r="BH15" t="n">
-        <v>0.1943288047457188</v>
+        <v>0</v>
       </c>
       <c r="BI15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BJ15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BK15" t="n">
         <v>-0</v>
@@ -8593,25 +8593,25 @@
         <v>0</v>
       </c>
       <c r="BM15" t="n">
-        <v>-0</v>
+        <v>-0.184901326902421</v>
       </c>
       <c r="BN15" t="n">
-        <v>0.05096481249332632</v>
+        <v>0.08910230487413472</v>
       </c>
       <c r="BO15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BP15" t="n">
-        <v>0.1184459911483531</v>
+        <v>-0.08627015295746959</v>
       </c>
       <c r="BQ15" t="n">
-        <v>-0.00825891237054349</v>
+        <v>0</v>
       </c>
       <c r="BR15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BS15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BT15" t="n">
         <v>0</v>
@@ -8620,19 +8620,19 @@
         <v>0</v>
       </c>
       <c r="BV15" t="n">
-        <v>-0</v>
+        <v>-0.3508908179268797</v>
       </c>
       <c r="BW15" t="n">
-        <v>-0.1397476559318538</v>
+        <v>0.4529280836974802</v>
       </c>
       <c r="BX15" t="n">
         <v>-0</v>
       </c>
       <c r="BY15" t="n">
-        <v>0.05049885601566576</v>
+        <v>0.05645949786646896</v>
       </c>
       <c r="BZ15" t="n">
-        <v>0.3596548570787432</v>
+        <v>0</v>
       </c>
       <c r="CA15" t="n">
         <v>0</v>
@@ -8644,25 +8644,25 @@
         <v>0</v>
       </c>
       <c r="CD15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CE15" t="n">
-        <v>-0</v>
+        <v>0.1503794137220025</v>
       </c>
       <c r="CF15" t="n">
-        <v>0.09602944015024908</v>
+        <v>-0.07479569953581507</v>
       </c>
       <c r="CG15" t="n">
         <v>0</v>
       </c>
       <c r="CH15" t="n">
-        <v>-0.003544679861074097</v>
+        <v>-0.1213342912226954</v>
       </c>
       <c r="CI15" t="n">
-        <v>-0.1232148288146623</v>
+        <v>0</v>
       </c>
       <c r="CJ15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CK15" t="n">
         <v>-0</v>
@@ -8674,22 +8674,22 @@
         <v>-0</v>
       </c>
       <c r="CN15" t="n">
-        <v>0</v>
+        <v>-0.04672080895384569</v>
       </c>
       <c r="CO15" t="n">
-        <v>-0.1126524815615997</v>
+        <v>0.005323350864917712</v>
       </c>
       <c r="CP15" t="n">
         <v>0</v>
       </c>
       <c r="CQ15" t="n">
-        <v>-0.1561736911433573</v>
+        <v>-0.1254596263353354</v>
       </c>
       <c r="CR15" t="n">
-        <v>0.04420399122132598</v>
+        <v>0</v>
       </c>
       <c r="CS15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CT15" t="n">
         <v>0</v>
@@ -8698,76 +8698,76 @@
         <v>-0</v>
       </c>
       <c r="CV15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CW15" t="n">
-        <v>0</v>
+        <v>0.07757006486998717</v>
       </c>
       <c r="CX15" t="n">
-        <v>0.07884167189195547</v>
+        <v>-0.06258736522237045</v>
       </c>
       <c r="CY15" t="n">
         <v>-0</v>
       </c>
       <c r="CZ15" t="n">
-        <v>-0.0716820002145776</v>
+        <v>-0.07102674800776251</v>
       </c>
       <c r="DA15" t="n">
-        <v>-0.1006792937399435</v>
+        <v>-0</v>
       </c>
       <c r="DB15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DC15" t="n">
         <v>0</v>
       </c>
       <c r="DD15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DE15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DF15" t="n">
-        <v>-0</v>
+        <v>0.1256735935008087</v>
       </c>
       <c r="DG15" t="n">
-        <v>0.07287745134249216</v>
+        <v>0.08065943002301712</v>
       </c>
       <c r="DH15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DI15" t="n">
-        <v>0.09822480524235849</v>
+        <v>0.08473206207730728</v>
       </c>
       <c r="DJ15" t="n">
-        <v>0.07461488168486391</v>
+        <v>0</v>
       </c>
       <c r="DK15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DL15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DM15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DN15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DO15" t="n">
-        <v>-0</v>
+        <v>0.002332447711510046</v>
       </c>
       <c r="DP15" t="n">
-        <v>0.01635497654626386</v>
+        <v>-0.0747793725964658</v>
       </c>
       <c r="DQ15" t="n">
         <v>0</v>
       </c>
       <c r="DR15" t="n">
-        <v>-0.01988557418624346</v>
+        <v>-0.1155439079874828</v>
       </c>
       <c r="DS15" t="n">
-        <v>0.04051045322908464</v>
+        <v>0</v>
       </c>
       <c r="DT15" t="n">
         <v>0</v>
@@ -8779,28 +8779,28 @@
         <v>-0</v>
       </c>
       <c r="DW15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DX15" t="n">
-        <v>0</v>
+        <v>0.01209923124503321</v>
       </c>
       <c r="DY15" t="n">
-        <v>-0.03315559357721702</v>
+        <v>0.1263090897489462</v>
       </c>
       <c r="DZ15" t="n">
         <v>0</v>
       </c>
       <c r="EA15" t="n">
-        <v>-0.01439978221273132</v>
+        <v>0.127131667680542</v>
       </c>
       <c r="EB15" t="n">
-        <v>-0.05540588062175902</v>
+        <v>-0</v>
       </c>
       <c r="EC15" t="n">
         <v>-0</v>
       </c>
       <c r="ED15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EE15" t="n">
         <v>0</v>
@@ -8809,46 +8809,46 @@
         <v>-0</v>
       </c>
       <c r="EG15" t="n">
-        <v>-0</v>
+        <v>0.06713534067916076</v>
       </c>
       <c r="EH15" t="n">
-        <v>0.1166199490203287</v>
+        <v>-0.03215473614290085</v>
       </c>
       <c r="EI15" t="n">
         <v>0</v>
       </c>
       <c r="EJ15" t="n">
-        <v>-0.1277748654111464</v>
+        <v>-0.1550726988351456</v>
       </c>
       <c r="EK15" t="n">
-        <v>-0.1942713587149483</v>
+        <v>0</v>
       </c>
       <c r="EL15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EM15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EN15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EO15" t="n">
         <v>-0</v>
       </c>
       <c r="EP15" t="n">
-        <v>0</v>
+        <v>-0.005535848430969405</v>
       </c>
       <c r="EQ15" t="n">
-        <v>-0.01151624395417797</v>
+        <v>0.116978227838612</v>
       </c>
       <c r="ER15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="ES15" t="n">
-        <v>0.04037648253291986</v>
+        <v>-0.07506344265449706</v>
       </c>
       <c r="ET15" t="n">
-        <v>-0.1149117972577308</v>
+        <v>0</v>
       </c>
       <c r="EU15" t="n">
         <v>0</v>
@@ -8860,49 +8860,49 @@
         <v>0</v>
       </c>
       <c r="EX15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EY15" t="n">
-        <v>-0</v>
+        <v>0.08474417053609594</v>
       </c>
       <c r="EZ15" t="n">
-        <v>0.08660132582000939</v>
+        <v>-0.057961560032683</v>
       </c>
       <c r="FA15" t="n">
         <v>0</v>
       </c>
       <c r="FB15" t="n">
-        <v>-0.04099960610280702</v>
+        <v>-0.09568343397529462</v>
       </c>
       <c r="FC15" t="n">
-        <v>-0.09283387746058826</v>
+        <v>0</v>
       </c>
       <c r="FD15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FE15" t="n">
         <v>-0</v>
       </c>
       <c r="FF15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FG15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FH15" t="n">
-        <v>-0</v>
+        <v>0.188635731691157</v>
       </c>
       <c r="FI15" t="n">
-        <v>0.07408189137328494</v>
+        <v>0.1747378483227353</v>
       </c>
       <c r="FJ15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FK15" t="n">
-        <v>-0.01678585015467247</v>
+        <v>0.2264260631060674</v>
       </c>
       <c r="FL15" t="n">
-        <v>-0.01089291381062039</v>
+        <v>-0</v>
       </c>
       <c r="FM15" t="n">
         <v>-0</v>
@@ -8914,28 +8914,28 @@
         <v>-0</v>
       </c>
       <c r="FP15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FQ15" t="n">
-        <v>0</v>
+        <v>5.604298610681453e-05</v>
       </c>
       <c r="FR15" t="n">
-        <v>0.001340707529996381</v>
+        <v>-0.06382797337706593</v>
       </c>
       <c r="FS15" t="n">
         <v>0</v>
       </c>
       <c r="FT15" t="n">
-        <v>-4.971300037797342e-05</v>
+        <v>0.01119998333724158</v>
       </c>
       <c r="FU15" t="n">
-        <v>-0.06107308971719332</v>
+        <v>0</v>
       </c>
       <c r="FV15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FW15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FX15" t="n">
         <v>0</v>
@@ -8944,19 +8944,19 @@
         <v>0</v>
       </c>
       <c r="FZ15" t="n">
-        <v>0</v>
+        <v>-0.09716828696710172</v>
       </c>
       <c r="GA15" t="n">
-        <v>-0.0588143552744357</v>
+        <v>-0.08856369978012235</v>
       </c>
       <c r="GB15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="GC15" t="n">
         <v>0</v>
       </c>
       <c r="GD15" t="n">
-        <v>0.03171356293287937</v>
+        <v>0</v>
       </c>
       <c r="GE15" t="n">
         <v>0</v>
@@ -8970,28 +8970,28 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>0.1866719415801081</v>
       </c>
       <c r="C16" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>-0.002912363819620556</v>
+        <v>-0.05829264228796881</v>
       </c>
       <c r="F16" t="n">
-        <v>0.3161936180670852</v>
+        <v>-0.09678038700810594</v>
       </c>
       <c r="G16" t="n">
         <v>-0</v>
       </c>
       <c r="H16" t="n">
-        <v>-0.09243698647342639</v>
+        <v>-0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -9000,25 +9000,25 @@
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>0.1554348635085714</v>
       </c>
       <c r="L16" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="M16" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="N16" t="n">
-        <v>-0.04011078135663609</v>
+        <v>-0.02892201020995755</v>
       </c>
       <c r="O16" t="n">
-        <v>0.2796526403316024</v>
+        <v>-0.08240097225374268</v>
       </c>
       <c r="P16" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="Q16" t="n">
-        <v>-0.07696010007564047</v>
+        <v>-0</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -9027,25 +9027,25 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>0.02443768408640635</v>
       </c>
       <c r="U16" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>-0.03024220051396426</v>
+        <v>-0.02147389258140084</v>
       </c>
       <c r="X16" t="n">
-        <v>0.06322486352987354</v>
+        <v>0.004927890255003738</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="Z16" t="n">
-        <v>0.003251445247247698</v>
+        <v>0</v>
       </c>
       <c r="AA16" t="n">
         <v>0</v>
@@ -9054,52 +9054,52 @@
         <v>-0</v>
       </c>
       <c r="AC16" t="n">
-        <v>-0</v>
+        <v>0.005025541633019228</v>
       </c>
       <c r="AD16" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AE16" t="n">
         <v>-0</v>
       </c>
       <c r="AF16" t="n">
-        <v>-0.06057682811973227</v>
+        <v>0.01013793594481165</v>
       </c>
       <c r="AG16" t="n">
-        <v>-0.01210079291074119</v>
+        <v>0.002847930542641288</v>
       </c>
       <c r="AH16" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AI16" t="n">
-        <v>-0.01378172506050822</v>
+        <v>-0</v>
       </c>
       <c r="AJ16" t="n">
         <v>0</v>
       </c>
       <c r="AK16" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AL16" t="n">
-        <v>-0</v>
+        <v>0.02573905422030843</v>
       </c>
       <c r="AM16" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AN16" t="n">
         <v>0</v>
       </c>
       <c r="AO16" t="n">
-        <v>0.04252762177171755</v>
+        <v>-0.0002167393453264373</v>
       </c>
       <c r="AP16" t="n">
-        <v>0.04313862945577399</v>
+        <v>-0.04255094142916818</v>
       </c>
       <c r="AQ16" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AR16" t="n">
-        <v>0.02090257956156611</v>
+        <v>-0</v>
       </c>
       <c r="AS16" t="n">
         <v>0</v>
@@ -9108,214 +9108,214 @@
         <v>-0</v>
       </c>
       <c r="AU16" t="n">
-        <v>0</v>
+        <v>0.1300306862304568</v>
       </c>
       <c r="AV16" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AW16" t="n">
         <v>0</v>
       </c>
       <c r="AX16" t="n">
-        <v>-0.03569943008287313</v>
+        <v>-0.03454946183637714</v>
       </c>
       <c r="AY16" t="n">
-        <v>0.142401071458884</v>
+        <v>-0.0932891712073569</v>
       </c>
       <c r="AZ16" t="n">
         <v>-0</v>
       </c>
       <c r="BA16" t="n">
-        <v>-0.04570816176240978</v>
+        <v>-0</v>
       </c>
       <c r="BB16" t="n">
         <v>0</v>
       </c>
       <c r="BC16" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BD16" t="n">
-        <v>-0</v>
+        <v>0.04168909320494315</v>
       </c>
       <c r="BE16" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BF16" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BG16" t="n">
-        <v>-0.02071266988265786</v>
+        <v>-0.04610203480945364</v>
       </c>
       <c r="BH16" t="n">
-        <v>0.07184410612986127</v>
+        <v>-0.02763563012009701</v>
       </c>
       <c r="BI16" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BJ16" t="n">
-        <v>-0.06966824021757009</v>
+        <v>0</v>
       </c>
       <c r="BK16" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BL16" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BM16" t="n">
-        <v>0</v>
+        <v>0.0302141482276657</v>
       </c>
       <c r="BN16" t="n">
         <v>0</v>
       </c>
       <c r="BO16" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BP16" t="n">
-        <v>-0.01959560292425458</v>
+        <v>0.008425782294603714</v>
       </c>
       <c r="BQ16" t="n">
-        <v>-0.03842500788814728</v>
+        <v>0.0110753624257428</v>
       </c>
       <c r="BR16" t="n">
         <v>-0</v>
       </c>
       <c r="BS16" t="n">
-        <v>-0.00910165798574173</v>
+        <v>0</v>
       </c>
       <c r="BT16" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BU16" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BV16" t="n">
-        <v>0</v>
+        <v>0.06826351040113088</v>
       </c>
       <c r="BW16" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BX16" t="n">
         <v>0</v>
       </c>
       <c r="BY16" t="n">
-        <v>0.004159727978497343</v>
+        <v>-0.02672982968890681</v>
       </c>
       <c r="BZ16" t="n">
-        <v>0.1301378645993296</v>
+        <v>-0.02402262984171773</v>
       </c>
       <c r="CA16" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CB16" t="n">
-        <v>-0.02121373679181385</v>
+        <v>-0</v>
       </c>
       <c r="CC16" t="n">
         <v>0</v>
       </c>
       <c r="CD16" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CE16" t="n">
-        <v>-0</v>
+        <v>-0.03584356157458097</v>
       </c>
       <c r="CF16" t="n">
         <v>0</v>
       </c>
       <c r="CG16" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CH16" t="n">
-        <v>0.01018829943816414</v>
+        <v>0.0004711392407818426</v>
       </c>
       <c r="CI16" t="n">
-        <v>-0.05799439646970659</v>
+        <v>0.02644550832374689</v>
       </c>
       <c r="CJ16" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CK16" t="n">
-        <v>0.018579705608273</v>
+        <v>0</v>
       </c>
       <c r="CL16" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CM16" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CN16" t="n">
-        <v>0</v>
+        <v>0.003009996148552152</v>
       </c>
       <c r="CO16" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CP16" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CQ16" t="n">
-        <v>0.02976464463966405</v>
+        <v>-0.004235462552216493</v>
       </c>
       <c r="CR16" t="n">
-        <v>0.07488373114941445</v>
+        <v>-0.0252412651602634</v>
       </c>
       <c r="CS16" t="n">
         <v>-0</v>
       </c>
       <c r="CT16" t="n">
-        <v>-0.01814838800997567</v>
+        <v>-0</v>
       </c>
       <c r="CU16" t="n">
         <v>0</v>
       </c>
       <c r="CV16" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CW16" t="n">
-        <v>0</v>
+        <v>-0.03304796974554574</v>
       </c>
       <c r="CX16" t="n">
         <v>-0</v>
       </c>
       <c r="CY16" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CZ16" t="n">
-        <v>0.01389424757610976</v>
+        <v>9.521726397696762e-05</v>
       </c>
       <c r="DA16" t="n">
-        <v>-0.0596985767701293</v>
+        <v>0.03174898807406948</v>
       </c>
       <c r="DB16" t="n">
         <v>0</v>
       </c>
       <c r="DC16" t="n">
-        <v>0.03776859856333811</v>
+        <v>-0</v>
       </c>
       <c r="DD16" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DE16" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DF16" t="n">
-        <v>0</v>
+        <v>-0.02393445624037073</v>
       </c>
       <c r="DG16" t="n">
         <v>-0</v>
       </c>
       <c r="DH16" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DI16" t="n">
-        <v>0.01657626848527533</v>
+        <v>0.04725598870191916</v>
       </c>
       <c r="DJ16" t="n">
-        <v>-0.01611722433977728</v>
+        <v>-0.0005184237985485618</v>
       </c>
       <c r="DK16" t="n">
         <v>0</v>
       </c>
       <c r="DL16" t="n">
-        <v>-0.001446058472335037</v>
+        <v>0</v>
       </c>
       <c r="DM16" t="n">
         <v>0</v>
@@ -9324,7 +9324,7 @@
         <v>-0</v>
       </c>
       <c r="DO16" t="n">
-        <v>0</v>
+        <v>-0.009849863498218285</v>
       </c>
       <c r="DP16" t="n">
         <v>0</v>
@@ -9333,52 +9333,52 @@
         <v>0</v>
       </c>
       <c r="DR16" t="n">
-        <v>0.03988363568089374</v>
+        <v>0.02102028348500859</v>
       </c>
       <c r="DS16" t="n">
-        <v>0.002437408650080853</v>
+        <v>-0.001705998930743725</v>
       </c>
       <c r="DT16" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DU16" t="n">
-        <v>-0.005772987726968678</v>
+        <v>0</v>
       </c>
       <c r="DV16" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DW16" t="n">
         <v>-0</v>
       </c>
       <c r="DX16" t="n">
-        <v>-0</v>
+        <v>-0.02798800554246751</v>
       </c>
       <c r="DY16" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DZ16" t="n">
         <v>-0</v>
       </c>
       <c r="EA16" t="n">
-        <v>-0.01591861034152089</v>
+        <v>0.00400238244854873</v>
       </c>
       <c r="EB16" t="n">
-        <v>-0.01067614794431332</v>
+        <v>0.01192266688131346</v>
       </c>
       <c r="EC16" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="ED16" t="n">
-        <v>-0.02008356493318816</v>
+        <v>0</v>
       </c>
       <c r="EE16" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EF16" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EG16" t="n">
-        <v>-0</v>
+        <v>-0.03796831465226183</v>
       </c>
       <c r="EH16" t="n">
         <v>0</v>
@@ -9387,16 +9387,16 @@
         <v>0</v>
       </c>
       <c r="EJ16" t="n">
-        <v>-0.03988795704979169</v>
+        <v>0.009914527201774343</v>
       </c>
       <c r="EK16" t="n">
-        <v>-0.07533561543154847</v>
+        <v>0.03520724016980342</v>
       </c>
       <c r="EL16" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EM16" t="n">
-        <v>0.003864587023466092</v>
+        <v>-0</v>
       </c>
       <c r="EN16" t="n">
         <v>0</v>
@@ -9405,136 +9405,136 @@
         <v>0</v>
       </c>
       <c r="EP16" t="n">
-        <v>0</v>
+        <v>-0.02297504104250167</v>
       </c>
       <c r="EQ16" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="ER16" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="ES16" t="n">
-        <v>0.02366553559759046</v>
+        <v>-0.008699797892150937</v>
       </c>
       <c r="ET16" t="n">
-        <v>-0.0382464379159205</v>
+        <v>0.003565592136047243</v>
       </c>
       <c r="EU16" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EV16" t="n">
-        <v>-0.07293519796533957</v>
+        <v>0</v>
       </c>
       <c r="EW16" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EX16" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EY16" t="n">
-        <v>-0</v>
+        <v>-0.03122900648766589</v>
       </c>
       <c r="EZ16" t="n">
         <v>0</v>
       </c>
       <c r="FA16" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FB16" t="n">
-        <v>0.0100593264523713</v>
+        <v>0.0006733554488430249</v>
       </c>
       <c r="FC16" t="n">
-        <v>-0.05469607628919067</v>
+        <v>0.02785395217244502</v>
       </c>
       <c r="FD16" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FE16" t="n">
-        <v>0.03694646119484482</v>
+        <v>0</v>
       </c>
       <c r="FF16" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FG16" t="n">
         <v>0</v>
       </c>
       <c r="FH16" t="n">
-        <v>-0</v>
+        <v>-0.004936412956989913</v>
       </c>
       <c r="FI16" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FJ16" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FK16" t="n">
-        <v>-0.006839006581897954</v>
+        <v>0.01017082049156274</v>
       </c>
       <c r="FL16" t="n">
-        <v>0.01656760786189556</v>
+        <v>0.02911004224525092</v>
       </c>
       <c r="FM16" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FN16" t="n">
-        <v>0.02999690684321504</v>
+        <v>-0</v>
       </c>
       <c r="FO16" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FP16" t="n">
         <v>0</v>
       </c>
       <c r="FQ16" t="n">
-        <v>-0</v>
+        <v>-0.002385368259483431</v>
       </c>
       <c r="FR16" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FS16" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FT16" t="n">
-        <v>0.006796795978937598</v>
+        <v>0.01202217662138222</v>
       </c>
       <c r="FU16" t="n">
-        <v>-0.03492942377331331</v>
+        <v>0.01970442075799006</v>
       </c>
       <c r="FV16" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FW16" t="n">
-        <v>0.03506736287925898</v>
+        <v>-0</v>
       </c>
       <c r="FX16" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FY16" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FZ16" t="n">
-        <v>-0</v>
+        <v>-0.0005534571715125191</v>
       </c>
       <c r="GA16" t="n">
         <v>-0</v>
       </c>
       <c r="GB16" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="GC16" t="n">
         <v>0</v>
       </c>
       <c r="GD16" t="n">
-        <v>0.03704792104223064</v>
+        <v>-0.015246041461427</v>
       </c>
       <c r="GE16" t="n">
         <v>-0</v>
       </c>
       <c r="GF16" t="n">
-        <v>-0.01521971904167351</v>
+        <v>-0</v>
       </c>
       <c r="GG16" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="17">
@@ -9542,25 +9542,25 @@
         <v>0</v>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>0.1194034427030947</v>
       </c>
       <c r="C17" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>-0.01122005299883061</v>
+        <v>-0.09116545916255502</v>
       </c>
       <c r="F17" t="n">
-        <v>0.2308623610062283</v>
+        <v>-0.02237423886340071</v>
       </c>
       <c r="G17" t="n">
         <v>-0</v>
       </c>
       <c r="H17" t="n">
-        <v>-0.06383696331338568</v>
+        <v>-0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -9569,7 +9569,7 @@
         <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>0.08586486833385644</v>
       </c>
       <c r="L17" t="n">
         <v>-0</v>
@@ -9578,16 +9578,16 @@
         <v>-0</v>
       </c>
       <c r="N17" t="n">
-        <v>-0.02148505214843523</v>
+        <v>-0.07314236435640335</v>
       </c>
       <c r="O17" t="n">
-        <v>0.197698334767505</v>
+        <v>-0.02862672687352671</v>
       </c>
       <c r="P17" t="n">
         <v>-0</v>
       </c>
       <c r="Q17" t="n">
-        <v>-0.04572060232714809</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -9596,7 +9596,7 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>0.020689658951752</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
@@ -9605,133 +9605,133 @@
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>-0.03710721663053589</v>
+        <v>-0.003645303850831054</v>
       </c>
       <c r="X17" t="n">
-        <v>0.05816362591876696</v>
+        <v>0.01224493385390129</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
       </c>
       <c r="Z17" t="n">
-        <v>0.00416927301496013</v>
+        <v>0</v>
       </c>
       <c r="AA17" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AB17" t="n">
         <v>-0</v>
       </c>
       <c r="AC17" t="n">
-        <v>-0</v>
+        <v>0.005024203859306907</v>
       </c>
       <c r="AD17" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AE17" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AF17" t="n">
-        <v>-0.04225155183406436</v>
+        <v>0.002856713227994666</v>
       </c>
       <c r="AG17" t="n">
-        <v>0.002433770153767861</v>
+        <v>0.003622460907887978</v>
       </c>
       <c r="AH17" t="n">
         <v>-0</v>
       </c>
       <c r="AI17" t="n">
-        <v>-0.01147308810445035</v>
+        <v>-0</v>
       </c>
       <c r="AJ17" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AK17" t="n">
         <v>0</v>
       </c>
       <c r="AL17" t="n">
-        <v>-0</v>
+        <v>0.01903091436823276</v>
       </c>
       <c r="AM17" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AN17" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AO17" t="n">
-        <v>0.01133115829179339</v>
+        <v>-0.01323768279170995</v>
       </c>
       <c r="AP17" t="n">
-        <v>0.03059978728052077</v>
+        <v>-0.01252021794944855</v>
       </c>
       <c r="AQ17" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AR17" t="n">
-        <v>0.01700562012654817</v>
+        <v>0</v>
       </c>
       <c r="AS17" t="n">
         <v>0</v>
       </c>
       <c r="AT17" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AU17" t="n">
-        <v>0</v>
+        <v>0.09589795725253622</v>
       </c>
       <c r="AV17" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AW17" t="n">
         <v>0</v>
       </c>
       <c r="AX17" t="n">
-        <v>-0.06152461286058705</v>
+        <v>-0.05156554550425667</v>
       </c>
       <c r="AY17" t="n">
-        <v>0.1234708359660052</v>
+        <v>-0.01259778355051589</v>
       </c>
       <c r="AZ17" t="n">
         <v>0</v>
       </c>
       <c r="BA17" t="n">
-        <v>-0.0423179006519061</v>
+        <v>-0</v>
       </c>
       <c r="BB17" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BC17" t="n">
         <v>0</v>
       </c>
       <c r="BD17" t="n">
-        <v>-0</v>
+        <v>0.0219349691945563</v>
       </c>
       <c r="BE17" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BF17" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BG17" t="n">
-        <v>-0.02564006089218577</v>
+        <v>-0.05032069308723638</v>
       </c>
       <c r="BH17" t="n">
-        <v>0.04590102721564519</v>
+        <v>-0.01910255917002472</v>
       </c>
       <c r="BI17" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BJ17" t="n">
-        <v>-0.04751559744067432</v>
+        <v>0</v>
       </c>
       <c r="BK17" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BL17" t="n">
         <v>-0</v>
       </c>
       <c r="BM17" t="n">
-        <v>0</v>
+        <v>0.02692297810235758</v>
       </c>
       <c r="BN17" t="n">
         <v>0</v>
@@ -9740,25 +9740,25 @@
         <v>0</v>
       </c>
       <c r="BP17" t="n">
-        <v>-0.0156245325916628</v>
+        <v>0.01581246009888596</v>
       </c>
       <c r="BQ17" t="n">
-        <v>-0.01450370652185589</v>
+        <v>0.02217476390530027</v>
       </c>
       <c r="BR17" t="n">
         <v>-0</v>
       </c>
       <c r="BS17" t="n">
-        <v>-0.03327493090753834</v>
+        <v>-0</v>
       </c>
       <c r="BT17" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BU17" t="n">
         <v>0</v>
       </c>
       <c r="BV17" t="n">
-        <v>0</v>
+        <v>0.05172526683461891</v>
       </c>
       <c r="BW17" t="n">
         <v>0</v>
@@ -9767,124 +9767,124 @@
         <v>0</v>
       </c>
       <c r="BY17" t="n">
-        <v>-0.01864133753991885</v>
+        <v>-0.02336839001696728</v>
       </c>
       <c r="BZ17" t="n">
-        <v>0.08418701895783098</v>
+        <v>0.002075848900190223</v>
       </c>
       <c r="CA17" t="n">
         <v>-0</v>
       </c>
       <c r="CB17" t="n">
-        <v>-0.01709002012371682</v>
+        <v>-0</v>
       </c>
       <c r="CC17" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CD17" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CE17" t="n">
-        <v>-0</v>
+        <v>-0.01944482579069419</v>
       </c>
       <c r="CF17" t="n">
         <v>0</v>
       </c>
       <c r="CG17" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CH17" t="n">
-        <v>0.008860211806142951</v>
+        <v>0.01243818607272533</v>
       </c>
       <c r="CI17" t="n">
-        <v>-0.03967283328688734</v>
+        <v>0.007210200030520971</v>
       </c>
       <c r="CJ17" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CK17" t="n">
-        <v>0.01436884187171226</v>
+        <v>-0</v>
       </c>
       <c r="CL17" t="n">
         <v>-0</v>
       </c>
       <c r="CM17" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CN17" t="n">
-        <v>0</v>
+        <v>-0.00111584625061713</v>
       </c>
       <c r="CO17" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CP17" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CQ17" t="n">
-        <v>0.07083705387418239</v>
+        <v>-0.005734751937682209</v>
       </c>
       <c r="CR17" t="n">
-        <v>0.03903490845098578</v>
+        <v>-0.004238952934040293</v>
       </c>
       <c r="CS17" t="n">
         <v>-0</v>
       </c>
       <c r="CT17" t="n">
-        <v>-0.01335813048744984</v>
+        <v>-0</v>
       </c>
       <c r="CU17" t="n">
         <v>0</v>
       </c>
       <c r="CV17" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CW17" t="n">
-        <v>0</v>
+        <v>-0.01234235461880544</v>
       </c>
       <c r="CX17" t="n">
         <v>-0</v>
       </c>
       <c r="CY17" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CZ17" t="n">
-        <v>0.00882638742505319</v>
+        <v>0.009228165611734706</v>
       </c>
       <c r="DA17" t="n">
-        <v>-0.03714657866847125</v>
+        <v>0.0127615061201673</v>
       </c>
       <c r="DB17" t="n">
         <v>-0</v>
       </c>
       <c r="DC17" t="n">
-        <v>0.02312452182541639</v>
+        <v>0</v>
       </c>
       <c r="DD17" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DE17" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DF17" t="n">
-        <v>-0</v>
+        <v>-0.01716673692919502</v>
       </c>
       <c r="DG17" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DH17" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DI17" t="n">
-        <v>0.006415327430285468</v>
+        <v>0.01956647780585741</v>
       </c>
       <c r="DJ17" t="n">
-        <v>-0.01601443350340178</v>
+        <v>-0.00319976311913611</v>
       </c>
       <c r="DK17" t="n">
         <v>0</v>
       </c>
       <c r="DL17" t="n">
-        <v>-0.0007244634282043061</v>
+        <v>-0</v>
       </c>
       <c r="DM17" t="n">
         <v>0</v>
@@ -9893,217 +9893,217 @@
         <v>-0</v>
       </c>
       <c r="DO17" t="n">
-        <v>0</v>
+        <v>-0.008796128107282041</v>
       </c>
       <c r="DP17" t="n">
         <v>0</v>
       </c>
       <c r="DQ17" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DR17" t="n">
-        <v>0.02251217226616089</v>
+        <v>0.01862631149641674</v>
       </c>
       <c r="DS17" t="n">
-        <v>-0.002741767340416927</v>
+        <v>-0.01325797498010334</v>
       </c>
       <c r="DT17" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DU17" t="n">
-        <v>-0.01600023240457356</v>
+        <v>0</v>
       </c>
       <c r="DV17" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DW17" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DX17" t="n">
-        <v>-0</v>
+        <v>-0.017059598554579</v>
       </c>
       <c r="DY17" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DZ17" t="n">
         <v>-0</v>
       </c>
       <c r="EA17" t="n">
-        <v>-0.009001663618970202</v>
+        <v>0.0149601860172486</v>
       </c>
       <c r="EB17" t="n">
-        <v>0.01010904413197899</v>
+        <v>0.001405673571006225</v>
       </c>
       <c r="EC17" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="ED17" t="n">
-        <v>-0.006103445238963867</v>
+        <v>0</v>
       </c>
       <c r="EE17" t="n">
         <v>-0</v>
       </c>
       <c r="EF17" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EG17" t="n">
-        <v>-0</v>
+        <v>-0.01957291312824895</v>
       </c>
       <c r="EH17" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EI17" t="n">
         <v>0</v>
       </c>
       <c r="EJ17" t="n">
-        <v>-0.03065320071331178</v>
+        <v>0.01106508156434093</v>
       </c>
       <c r="EK17" t="n">
-        <v>-0.03961314126422508</v>
+        <v>0.006668001882128687</v>
       </c>
       <c r="EL17" t="n">
         <v>-0</v>
       </c>
       <c r="EM17" t="n">
-        <v>-0.006961663813931819</v>
+        <v>-0</v>
       </c>
       <c r="EN17" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EO17" t="n">
         <v>0</v>
       </c>
       <c r="EP17" t="n">
-        <v>-0</v>
+        <v>-0.0002485686429716852</v>
       </c>
       <c r="EQ17" t="n">
         <v>0</v>
       </c>
       <c r="ER17" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="ES17" t="n">
-        <v>0.02639594025258555</v>
+        <v>0.008967056606943368</v>
       </c>
       <c r="ET17" t="n">
-        <v>-0.01699850496023891</v>
+        <v>-0.001015382227085778</v>
       </c>
       <c r="EU17" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EV17" t="n">
-        <v>0.02088279879731117</v>
+        <v>0</v>
       </c>
       <c r="EW17" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EX17" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EY17" t="n">
-        <v>-0</v>
+        <v>-0.01258769146324386</v>
       </c>
       <c r="EZ17" t="n">
         <v>0</v>
       </c>
       <c r="FA17" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FB17" t="n">
-        <v>0.005398776726863681</v>
+        <v>0.01175031275618319</v>
       </c>
       <c r="FC17" t="n">
-        <v>-0.03853824118498002</v>
+        <v>0.0145820892315244</v>
       </c>
       <c r="FD17" t="n">
         <v>0</v>
       </c>
       <c r="FE17" t="n">
-        <v>0.02382413649570004</v>
+        <v>-0</v>
       </c>
       <c r="FF17" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FG17" t="n">
         <v>0</v>
       </c>
       <c r="FH17" t="n">
-        <v>-0</v>
+        <v>-0.003731747530845433</v>
       </c>
       <c r="FI17" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FJ17" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FK17" t="n">
-        <v>0.002090661425632826</v>
+        <v>0.01405990522316315</v>
       </c>
       <c r="FL17" t="n">
-        <v>0.04237450176535264</v>
+        <v>0.0107423003744441</v>
       </c>
       <c r="FM17" t="n">
         <v>0</v>
       </c>
       <c r="FN17" t="n">
-        <v>0.03278533661617184</v>
+        <v>-0</v>
       </c>
       <c r="FO17" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FP17" t="n">
         <v>0</v>
       </c>
       <c r="FQ17" t="n">
-        <v>-0</v>
+        <v>-0.00270756418281065</v>
       </c>
       <c r="FR17" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FS17" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FT17" t="n">
-        <v>0.009847922790429408</v>
+        <v>0.008823429105726883</v>
       </c>
       <c r="FU17" t="n">
-        <v>-0.02444710234008349</v>
+        <v>0.01174531979410375</v>
       </c>
       <c r="FV17" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FW17" t="n">
-        <v>0.02771706460813895</v>
+        <v>-0</v>
       </c>
       <c r="FX17" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FY17" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FZ17" t="n">
-        <v>-0</v>
+        <v>-0.000598404594241947</v>
       </c>
       <c r="GA17" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="GB17" t="n">
         <v>-0</v>
       </c>
       <c r="GC17" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="GD17" t="n">
-        <v>0.05540409778978609</v>
+        <v>-0.01452772624249616</v>
       </c>
       <c r="GE17" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="GF17" t="n">
-        <v>2.60039827454157e-05</v>
+        <v>-0</v>
       </c>
       <c r="GG17" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -10111,79 +10111,79 @@
         <v>0</v>
       </c>
       <c r="B18" t="n">
-        <v>-0.1797402404557036</v>
+        <v>0.4612862467944705</v>
       </c>
       <c r="C18" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>-0</v>
+        <v>-0.09930328045141679</v>
       </c>
       <c r="E18" t="n">
-        <v>0.0572264592159983</v>
+        <v>-0.157128459823017</v>
       </c>
       <c r="F18" t="n">
-        <v>0.4595738874250345</v>
+        <v>-0</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="K18" t="n">
-        <v>-0.1610502941862963</v>
+        <v>0.3447047673074812</v>
       </c>
       <c r="L18" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>-0.125967975384701</v>
       </c>
       <c r="N18" t="n">
-        <v>0.0324545278681445</v>
+        <v>-0.1560561176498687</v>
       </c>
       <c r="O18" t="n">
-        <v>0.470298284433703</v>
+        <v>-0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="Q18" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>-0.003009271630499188</v>
+        <v>0.106869743431187</v>
       </c>
       <c r="U18" t="n">
         <v>-0</v>
       </c>
       <c r="V18" t="n">
-        <v>0</v>
+        <v>0.01859818000135718</v>
       </c>
       <c r="W18" t="n">
-        <v>-0.01559513710241826</v>
+        <v>0.08160149662149267</v>
       </c>
       <c r="X18" t="n">
-        <v>0.1112908442113584</v>
+        <v>-0</v>
       </c>
       <c r="Y18" t="n">
         <v>-0</v>
       </c>
       <c r="Z18" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AA18" t="n">
         <v>0</v>
@@ -10192,19 +10192,19 @@
         <v>-0</v>
       </c>
       <c r="AC18" t="n">
-        <v>-0.02686676218898781</v>
+        <v>0.1100425264058356</v>
       </c>
       <c r="AD18" t="n">
         <v>-0</v>
       </c>
       <c r="AE18" t="n">
-        <v>-0</v>
+        <v>-0.005021727526381743</v>
       </c>
       <c r="AF18" t="n">
-        <v>-0.08721996421373092</v>
+        <v>-0.01254571869196717</v>
       </c>
       <c r="AG18" t="n">
-        <v>-0.07720246362056479</v>
+        <v>-0</v>
       </c>
       <c r="AH18" t="n">
         <v>-0</v>
@@ -10213,52 +10213,52 @@
         <v>0</v>
       </c>
       <c r="AJ18" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AK18" t="n">
         <v>0</v>
       </c>
       <c r="AL18" t="n">
-        <v>-0.05164619629195113</v>
+        <v>-0.006215914120162379</v>
       </c>
       <c r="AM18" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AN18" t="n">
-        <v>0</v>
+        <v>-0.06200841123069645</v>
       </c>
       <c r="AO18" t="n">
-        <v>-0.03289757153670585</v>
+        <v>-0.0895042480861834</v>
       </c>
       <c r="AP18" t="n">
-        <v>0.1033645265145234</v>
+        <v>0</v>
       </c>
       <c r="AQ18" t="n">
         <v>-0</v>
       </c>
       <c r="AR18" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AS18" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AT18" t="n">
         <v>0</v>
       </c>
       <c r="AU18" t="n">
-        <v>-0.1916965632310097</v>
+        <v>0.3788541229600847</v>
       </c>
       <c r="AV18" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AW18" t="n">
-        <v>0</v>
+        <v>0.02002432028703454</v>
       </c>
       <c r="AX18" t="n">
-        <v>-0.04498739662674626</v>
+        <v>0.0537832826708846</v>
       </c>
       <c r="AY18" t="n">
-        <v>0.1501518792135626</v>
+        <v>-0</v>
       </c>
       <c r="AZ18" t="n">
         <v>-0</v>
@@ -10273,19 +10273,19 @@
         <v>-0</v>
       </c>
       <c r="BD18" t="n">
-        <v>-0.0746422466037191</v>
+        <v>0.02567039992278922</v>
       </c>
       <c r="BE18" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BF18" t="n">
-        <v>-0</v>
+        <v>-0.08722740345542909</v>
       </c>
       <c r="BG18" t="n">
-        <v>-0.04633822631107581</v>
+        <v>-0.1588901218277173</v>
       </c>
       <c r="BH18" t="n">
-        <v>0.1629010920525827</v>
+        <v>-0</v>
       </c>
       <c r="BI18" t="n">
         <v>0</v>
@@ -10300,46 +10300,46 @@
         <v>-0</v>
       </c>
       <c r="BM18" t="n">
-        <v>0.01720389922371894</v>
+        <v>0.09512377735409479</v>
       </c>
       <c r="BN18" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BO18" t="n">
-        <v>-0</v>
+        <v>0.04532458934689555</v>
       </c>
       <c r="BP18" t="n">
-        <v>-0.06382804255748806</v>
+        <v>0.1683650859671933</v>
       </c>
       <c r="BQ18" t="n">
-        <v>-0.06021904915589139</v>
+        <v>-0</v>
       </c>
       <c r="BR18" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BS18" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BT18" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BU18" t="n">
         <v>0</v>
       </c>
       <c r="BV18" t="n">
-        <v>-0.05255249503775708</v>
+        <v>0.1972801687845852</v>
       </c>
       <c r="BW18" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BX18" t="n">
-        <v>0</v>
+        <v>0.04557375486365192</v>
       </c>
       <c r="BY18" t="n">
-        <v>0.02164206670826752</v>
+        <v>0.04486630689517677</v>
       </c>
       <c r="BZ18" t="n">
-        <v>0.1841103423478764</v>
+        <v>-0</v>
       </c>
       <c r="CA18" t="n">
         <v>-0</v>
@@ -10348,28 +10348,28 @@
         <v>-0</v>
       </c>
       <c r="CC18" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CD18" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CE18" t="n">
-        <v>0.05971740413143906</v>
+        <v>-0.09566893117433006</v>
       </c>
       <c r="CF18" t="n">
         <v>-0</v>
       </c>
       <c r="CG18" t="n">
-        <v>-0</v>
+        <v>0.006156013003339835</v>
       </c>
       <c r="CH18" t="n">
-        <v>-0.01679760845325234</v>
+        <v>0.0003908594452586483</v>
       </c>
       <c r="CI18" t="n">
-        <v>-0.06750061516251735</v>
+        <v>0</v>
       </c>
       <c r="CJ18" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CK18" t="n">
         <v>0</v>
@@ -10381,22 +10381,22 @@
         <v>0</v>
       </c>
       <c r="CN18" t="n">
-        <v>0.03006500085903241</v>
+        <v>-0.04257397896893798</v>
       </c>
       <c r="CO18" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CP18" t="n">
-        <v>-0</v>
+        <v>-0.0514503192152873</v>
       </c>
       <c r="CQ18" t="n">
-        <v>0.05937894161951673</v>
+        <v>-0.1334708358238356</v>
       </c>
       <c r="CR18" t="n">
-        <v>0.06206268748269156</v>
+        <v>0</v>
       </c>
       <c r="CS18" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CT18" t="n">
         <v>0</v>
@@ -10405,22 +10405,22 @@
         <v>0</v>
       </c>
       <c r="CV18" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CW18" t="n">
-        <v>0.04886224073596153</v>
+        <v>-0.08058410697657616</v>
       </c>
       <c r="CX18" t="n">
         <v>-0</v>
       </c>
       <c r="CY18" t="n">
-        <v>0</v>
+        <v>0.02812798948082702</v>
       </c>
       <c r="CZ18" t="n">
-        <v>-0.009992672285255086</v>
+        <v>-0.004999455747070466</v>
       </c>
       <c r="DA18" t="n">
-        <v>-0.06702092798749032</v>
+        <v>-0</v>
       </c>
       <c r="DB18" t="n">
         <v>0</v>
@@ -10432,28 +10432,28 @@
         <v>0</v>
       </c>
       <c r="DE18" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DF18" t="n">
-        <v>0.02424895025713566</v>
+        <v>-0.01589617093753493</v>
       </c>
       <c r="DG18" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DH18" t="n">
-        <v>-0</v>
+        <v>0.005674847480193188</v>
       </c>
       <c r="DI18" t="n">
-        <v>0.01031816184054711</v>
+        <v>0.01599035064372591</v>
       </c>
       <c r="DJ18" t="n">
-        <v>0.03783226190780598</v>
+        <v>-0</v>
       </c>
       <c r="DK18" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DL18" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DM18" t="n">
         <v>0</v>
@@ -10462,19 +10462,19 @@
         <v>-0</v>
       </c>
       <c r="DO18" t="n">
-        <v>0.0067568482521441</v>
+        <v>-0.02765205067740414</v>
       </c>
       <c r="DP18" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DQ18" t="n">
-        <v>0</v>
+        <v>-0.1636628320778024</v>
       </c>
       <c r="DR18" t="n">
-        <v>0.01353687494439786</v>
+        <v>-0.059591766250566</v>
       </c>
       <c r="DS18" t="n">
-        <v>0.07461649419257001</v>
+        <v>-0</v>
       </c>
       <c r="DT18" t="n">
         <v>-0</v>
@@ -10486,22 +10486,22 @@
         <v>-0</v>
       </c>
       <c r="DW18" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DX18" t="n">
-        <v>0.02510590182765677</v>
+        <v>-0.07168654484259245</v>
       </c>
       <c r="DY18" t="n">
         <v>0</v>
       </c>
       <c r="DZ18" t="n">
-        <v>0</v>
+        <v>0.009180124572130374</v>
       </c>
       <c r="EA18" t="n">
-        <v>-0.03531959692604166</v>
+        <v>0.05751193517600223</v>
       </c>
       <c r="EB18" t="n">
-        <v>-0.02731071742042454</v>
+        <v>0</v>
       </c>
       <c r="EC18" t="n">
         <v>0</v>
@@ -10513,25 +10513,25 @@
         <v>0</v>
       </c>
       <c r="EF18" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EG18" t="n">
-        <v>0.06031538333600275</v>
+        <v>-0.1159295366672388</v>
       </c>
       <c r="EH18" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EI18" t="n">
-        <v>-0</v>
+        <v>0.05357747010969523</v>
       </c>
       <c r="EJ18" t="n">
-        <v>-0.1013681100761947</v>
+        <v>0.1084302532391055</v>
       </c>
       <c r="EK18" t="n">
-        <v>-0.09017079173132365</v>
+        <v>0</v>
       </c>
       <c r="EL18" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EM18" t="n">
         <v>-0</v>
@@ -10540,82 +10540,82 @@
         <v>-0</v>
       </c>
       <c r="EO18" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EP18" t="n">
-        <v>0.01381625859506065</v>
+        <v>-0.05278018337554848</v>
       </c>
       <c r="EQ18" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="ER18" t="n">
-        <v>-0</v>
+        <v>0.05786049470462667</v>
       </c>
       <c r="ES18" t="n">
-        <v>0.01719964300370666</v>
+        <v>0.01451600057251328</v>
       </c>
       <c r="ET18" t="n">
-        <v>-0.1041031078026971</v>
+        <v>0</v>
       </c>
       <c r="EU18" t="n">
         <v>-0</v>
       </c>
       <c r="EV18" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EW18" t="n">
         <v>-0</v>
       </c>
       <c r="EX18" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EY18" t="n">
-        <v>0.05837638555210671</v>
+        <v>-0.07831640745346817</v>
       </c>
       <c r="EZ18" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FA18" t="n">
-        <v>-0</v>
+        <v>0.01456971405688296</v>
       </c>
       <c r="FB18" t="n">
-        <v>-0.01553100041818497</v>
+        <v>0.007768096445509208</v>
       </c>
       <c r="FC18" t="n">
-        <v>-0.07411421331641417</v>
+        <v>0</v>
       </c>
       <c r="FD18" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FE18" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FF18" t="n">
         <v>-0</v>
       </c>
       <c r="FG18" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FH18" t="n">
-        <v>-0.03120916115373139</v>
+        <v>-0.0289261416623561</v>
       </c>
       <c r="FI18" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FJ18" t="n">
-        <v>0</v>
+        <v>-0.08237674347544487</v>
       </c>
       <c r="FK18" t="n">
-        <v>-0.07025676695379575</v>
+        <v>0.06977396523930299</v>
       </c>
       <c r="FL18" t="n">
-        <v>0.04330670927902103</v>
+        <v>-0</v>
       </c>
       <c r="FM18" t="n">
         <v>0</v>
       </c>
       <c r="FN18" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FO18" t="n">
         <v>0</v>
@@ -10624,52 +10624,52 @@
         <v>0</v>
       </c>
       <c r="FQ18" t="n">
-        <v>0.03435581872000955</v>
+        <v>0.00400057955062387</v>
       </c>
       <c r="FR18" t="n">
         <v>-0</v>
       </c>
       <c r="FS18" t="n">
-        <v>0</v>
+        <v>0.1080351646408963</v>
       </c>
       <c r="FT18" t="n">
-        <v>0.0240527029272235</v>
+        <v>-0.008023792352087972</v>
       </c>
       <c r="FU18" t="n">
-        <v>-0.03393456537785527</v>
+        <v>-0</v>
       </c>
       <c r="FV18" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FW18" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FX18" t="n">
         <v>0</v>
       </c>
       <c r="FY18" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FZ18" t="n">
-        <v>-0.03322558634891066</v>
+        <v>0.005660237705278372</v>
       </c>
       <c r="GA18" t="n">
         <v>-0</v>
       </c>
       <c r="GB18" t="n">
-        <v>0</v>
+        <v>-0.06115261951224001</v>
       </c>
       <c r="GC18" t="n">
         <v>-0</v>
       </c>
       <c r="GD18" t="n">
-        <v>0.08455051694268693</v>
+        <v>-0</v>
       </c>
       <c r="GE18" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="GF18" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="GG18" t="n">
         <v>-0</v>
@@ -10680,7 +10680,7 @@
         <v>0</v>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -10692,7 +10692,7 @@
         <v>-0</v>
       </c>
       <c r="F19" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -10707,7 +10707,7 @@
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="L19" t="n">
         <v>0</v>
@@ -10719,7 +10719,7 @@
         <v>-0</v>
       </c>
       <c r="O19" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="P19" t="n">
         <v>0</v>
@@ -10734,7 +10734,7 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -10746,7 +10746,7 @@
         <v>-0</v>
       </c>
       <c r="X19" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -10761,7 +10761,7 @@
         <v>0</v>
       </c>
       <c r="AC19" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AD19" t="n">
         <v>0</v>
@@ -10773,7 +10773,7 @@
         <v>-0</v>
       </c>
       <c r="AG19" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AH19" t="n">
         <v>0</v>
@@ -10788,7 +10788,7 @@
         <v>0</v>
       </c>
       <c r="AL19" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AM19" t="n">
         <v>0</v>
@@ -10800,7 +10800,7 @@
         <v>-0</v>
       </c>
       <c r="AP19" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AQ19" t="n">
         <v>0</v>
@@ -10815,7 +10815,7 @@
         <v>0</v>
       </c>
       <c r="AU19" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AV19" t="n">
         <v>0</v>
@@ -10827,7 +10827,7 @@
         <v>-0</v>
       </c>
       <c r="AY19" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AZ19" t="n">
         <v>0</v>
@@ -10842,7 +10842,7 @@
         <v>0</v>
       </c>
       <c r="BD19" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BE19" t="n">
         <v>0</v>
@@ -10854,7 +10854,7 @@
         <v>-0</v>
       </c>
       <c r="BH19" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BI19" t="n">
         <v>0</v>
@@ -10869,7 +10869,7 @@
         <v>0</v>
       </c>
       <c r="BM19" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BN19" t="n">
         <v>0</v>
@@ -10881,7 +10881,7 @@
         <v>-0</v>
       </c>
       <c r="BQ19" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BR19" t="n">
         <v>0</v>
@@ -10896,7 +10896,7 @@
         <v>0</v>
       </c>
       <c r="BV19" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BW19" t="n">
         <v>0</v>
@@ -10908,7 +10908,7 @@
         <v>-0</v>
       </c>
       <c r="BZ19" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CA19" t="n">
         <v>0</v>
@@ -10923,7 +10923,7 @@
         <v>0</v>
       </c>
       <c r="CE19" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CF19" t="n">
         <v>0</v>
@@ -10935,7 +10935,7 @@
         <v>-0</v>
       </c>
       <c r="CI19" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CJ19" t="n">
         <v>0</v>
@@ -10950,7 +10950,7 @@
         <v>0</v>
       </c>
       <c r="CN19" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CO19" t="n">
         <v>0</v>
@@ -10962,7 +10962,7 @@
         <v>-0</v>
       </c>
       <c r="CR19" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CS19" t="n">
         <v>0</v>
@@ -11004,7 +11004,7 @@
         <v>0</v>
       </c>
       <c r="DF19" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DG19" t="n">
         <v>0</v>
@@ -11016,7 +11016,7 @@
         <v>-0</v>
       </c>
       <c r="DJ19" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DK19" t="n">
         <v>0</v>
@@ -11031,7 +11031,7 @@
         <v>0</v>
       </c>
       <c r="DO19" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DP19" t="n">
         <v>0</v>
@@ -11043,7 +11043,7 @@
         <v>-0</v>
       </c>
       <c r="DS19" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DT19" t="n">
         <v>0</v>
@@ -11058,7 +11058,7 @@
         <v>0</v>
       </c>
       <c r="DX19" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DY19" t="n">
         <v>0</v>
@@ -11070,7 +11070,7 @@
         <v>-0</v>
       </c>
       <c r="EB19" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EC19" t="n">
         <v>0</v>
@@ -11085,7 +11085,7 @@
         <v>0</v>
       </c>
       <c r="EG19" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EH19" t="n">
         <v>0</v>
@@ -11097,7 +11097,7 @@
         <v>-0</v>
       </c>
       <c r="EK19" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EL19" t="n">
         <v>0</v>
@@ -11112,7 +11112,7 @@
         <v>0</v>
       </c>
       <c r="EP19" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EQ19" t="n">
         <v>0</v>
@@ -11124,7 +11124,7 @@
         <v>-0</v>
       </c>
       <c r="ET19" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EU19" t="n">
         <v>0</v>
@@ -11139,7 +11139,7 @@
         <v>0</v>
       </c>
       <c r="EY19" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EZ19" t="n">
         <v>0</v>
@@ -11151,7 +11151,7 @@
         <v>-0</v>
       </c>
       <c r="FC19" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FD19" t="n">
         <v>0</v>
@@ -11193,7 +11193,7 @@
         <v>0</v>
       </c>
       <c r="FQ19" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FR19" t="n">
         <v>0</v>
@@ -11205,7 +11205,7 @@
         <v>-0</v>
       </c>
       <c r="FU19" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FV19" t="n">
         <v>0</v>
